--- a/model/Output Files/Year 14.xlsx
+++ b/model/Output Files/Year 14.xlsx
@@ -1151,7 +1151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1175,51 +1175,6 @@
           <t>Retired Capacity</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Retired Capacity')</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Retired Capacity')</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Retired Capacity')</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1236,33 +1191,6 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>104</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>154</v>
-      </c>
-      <c r="M2" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1274,37 +1202,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>104</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>154</v>
-      </c>
-      <c r="M3" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1317,36 +1218,9 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>104</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>154</v>
-      </c>
-      <c r="M4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1529,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>45.37777777777778</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1612,37 +1486,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>8.453117028874706</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1692,16 +1566,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -1710,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>29.58312417100299</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1853,40 +1727,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>19.37777777777778</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>70.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>54.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>18.2</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1936,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>8.453117028874706</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>57.2</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1960,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -2016,16 +1890,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>59.8</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -2034,13 +1908,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>29.58312417100299</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2165,16 +2039,16 @@
         <v>32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>32.5</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>32.5</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2216,22 +2090,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>13.37199999999992</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -2239,23 +2113,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.5</v>
+        <v>32.5</v>
       </c>
       <c r="C3" t="n">
         <v>19.5</v>
       </c>
       <c r="D3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>19.5</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -2290,10 +2164,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2302,13 +2176,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -2316,10 +2190,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2331,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2370,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2385,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2489,73 +2363,73 @@
         <v>182.2909090909091</v>
       </c>
       <c r="C2" t="n">
-        <v>175.7252525252525</v>
+        <v>162.5939393939394</v>
       </c>
       <c r="D2" t="n">
-        <v>162.5939393939394</v>
+        <v>149.4626262626263</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>136.3313131313131</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>123.2</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>136.07</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>164.384</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>184.976</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>208.142</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>227.326</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>289.102</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>358.6</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>435.82</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>497.596</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>551.65</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>597.982</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>616</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>616</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>602.4929292929294</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>484.3111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>385.8262626262626</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>307.0383838383838</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>254.5131313131313</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>215.1191919191919</v>
       </c>
     </row>
     <row r="3">
@@ -2563,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>162.5939393939394</v>
+        <v>175.7252525252525</v>
       </c>
       <c r="C3" t="n">
         <v>156.0282828282828</v>
@@ -2572,67 +2446,67 @@
         <v>142.8969696969697</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>142.8969696969697</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>142.8969696969697</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>123.2</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>123.2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>164.384</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>226.16</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>308.528</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>316.896585858586</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>396.690585858586</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>453.3185858585859</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>453.3185858585859</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>453.3185858585859</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>479.058585858586</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>479.058585858586</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>458.0484848484849</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>326.7353535353536</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>326.7353535353536</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>326.7353535353536</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>247.9474747474748</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>247.9474747474748</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>208.5535353535354</v>
       </c>
     </row>
     <row r="4">
@@ -2640,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>149.4626262626263</v>
+        <v>162.5939393939394</v>
       </c>
       <c r="C4" t="n">
         <v>142.8969696969697</v>
@@ -2649,67 +2523,67 @@
         <v>142.8969696969697</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>142.8969696969697</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>142.8969696969697</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>123.2</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>123.2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.2</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>133.496</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>174.68</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>246.752</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>305.954</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>305.954</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>305.954</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>335.241292929293</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>355.833292929293</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>366.1292929292929</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>366.1292929292929</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>234.8161616161616</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>234.8161616161616</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>234.8161616161616</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>234.8161616161616</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>234.8161616161616</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>195.4222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3512,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>17.82800000000008</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3833,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>

--- a/model/Output Files/Year 14.xlsx
+++ b/model/Output Files/Year 14.xlsx
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>75348.5408</v>
+        <v>76023.24100800001</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9413.700549617388</v>
+        <v>9272.289645445851</v>
       </c>
       <c r="E2" t="n">
-        <v>2330</v>
+        <v>2370</v>
       </c>
       <c r="F2" t="n">
-        <v>14755.99376916531</v>
+        <v>14936.0475306448</v>
       </c>
     </row>
   </sheetData>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1218,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1403,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="H2" t="n">
-        <v>41.6</v>
+        <v>41.2</v>
       </c>
       <c r="I2" t="n">
-        <v>52</v>
+        <v>51.5</v>
       </c>
       <c r="J2" t="n">
-        <v>62.4</v>
+        <v>61.8</v>
       </c>
       <c r="K2" t="n">
-        <v>45.37777777777778</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>83.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>93.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="N2" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O2" t="n">
-        <v>93.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="P2" t="n">
-        <v>83.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.8</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>52</v>
+        <v>51.5</v>
       </c>
       <c r="S2" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="T2" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1486,37 +1486,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>8.453117028874706</v>
+        <v>92.7</v>
       </c>
       <c r="M3" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N3" t="n">
-        <v>83.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>51.65717783899595</v>
       </c>
       <c r="P3" t="n">
-        <v>28.6</v>
+        <v>51.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>52</v>
+        <v>51.5</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>30.9</v>
       </c>
       <c r="S3" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1566,31 +1566,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.6</v>
+        <v>41.2</v>
       </c>
       <c r="L4" t="n">
-        <v>72.8</v>
+        <v>70.28312417100291</v>
       </c>
       <c r="M4" t="n">
-        <v>83.2</v>
+        <v>23.4</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>29.58312417100299</v>
+        <v>41.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1727,40 +1727,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="H2" t="n">
-        <v>28.6</v>
+        <v>28.2</v>
       </c>
       <c r="I2" t="n">
-        <v>20.8</v>
+        <v>20.3</v>
       </c>
       <c r="J2" t="n">
-        <v>23.4</v>
+        <v>22.8</v>
       </c>
       <c r="K2" t="n">
-        <v>19.37777777777778</v>
+        <v>46.1</v>
       </c>
       <c r="L2" t="n">
-        <v>62.4</v>
+        <v>61.6</v>
       </c>
       <c r="M2" t="n">
-        <v>70.2</v>
+        <v>69.3</v>
       </c>
       <c r="N2" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O2" t="n">
-        <v>62.4</v>
+        <v>61.5</v>
       </c>
       <c r="P2" t="n">
-        <v>54.6</v>
+        <v>53.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>46.8</v>
+        <v>46.1</v>
       </c>
       <c r="R2" t="n">
-        <v>18.2</v>
+        <v>17.7</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1810,34 +1810,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>8.453117028874706</v>
+        <v>92.7</v>
       </c>
       <c r="M3" t="n">
-        <v>80.59999999999999</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>57.2</v>
+        <v>56.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>51.65717783899595</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>22.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>30.9</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1890,31 +1890,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.6</v>
+        <v>41.2</v>
       </c>
       <c r="L4" t="n">
-        <v>72.8</v>
+        <v>70.28312417100291</v>
       </c>
       <c r="M4" t="n">
-        <v>59.8</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>29.58312417100299</v>
+        <v>41.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.007719999999991</v>
       </c>
       <c r="T2" t="n">
-        <v>13.37199999999992</v>
+        <v>31.4</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2360,76 +2360,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>182.2909090909091</v>
+        <v>187.8909090909091</v>
       </c>
       <c r="C2" t="n">
-        <v>162.5939393939394</v>
+        <v>168.1939393939394</v>
       </c>
       <c r="D2" t="n">
-        <v>149.4626262626263</v>
+        <v>155.0626262626263</v>
       </c>
       <c r="E2" t="n">
-        <v>136.3313131313131</v>
+        <v>141.9313131313131</v>
       </c>
       <c r="F2" t="n">
-        <v>123.2</v>
+        <v>128.8</v>
       </c>
       <c r="G2" t="n">
-        <v>136.07</v>
+        <v>141.472</v>
       </c>
       <c r="H2" t="n">
-        <v>164.384</v>
+        <v>169.39</v>
       </c>
       <c r="I2" t="n">
-        <v>184.976</v>
+        <v>189.487</v>
       </c>
       <c r="J2" t="n">
-        <v>208.142</v>
+        <v>212.059</v>
       </c>
       <c r="K2" t="n">
-        <v>227.326</v>
+        <v>257.698</v>
       </c>
       <c r="L2" t="n">
-        <v>289.102</v>
+        <v>318.682</v>
       </c>
       <c r="M2" t="n">
-        <v>358.6</v>
+        <v>387.289</v>
       </c>
       <c r="N2" t="n">
-        <v>435.82</v>
+        <v>463.519</v>
       </c>
       <c r="O2" t="n">
-        <v>497.596</v>
+        <v>524.404</v>
       </c>
       <c r="P2" t="n">
-        <v>551.65</v>
+        <v>577.6659999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>597.982</v>
+        <v>623.3049999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>616</v>
+        <v>640.828</v>
       </c>
       <c r="S2" t="n">
-        <v>616</v>
+        <v>639.810101010101</v>
       </c>
       <c r="T2" t="n">
-        <v>602.4929292929294</v>
+        <v>608.0929292929293</v>
       </c>
       <c r="U2" t="n">
-        <v>484.3111111111111</v>
+        <v>489.9111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>385.8262626262626</v>
+        <v>391.4262626262627</v>
       </c>
       <c r="W2" t="n">
-        <v>307.0383838383838</v>
+        <v>312.6383838383838</v>
       </c>
       <c r="X2" t="n">
-        <v>254.5131313131313</v>
+        <v>260.1131313131313</v>
       </c>
       <c r="Y2" t="n">
-        <v>215.1191919191919</v>
+        <v>220.7191919191919</v>
       </c>
     </row>
     <row r="3">
@@ -2437,76 +2437,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>175.7252525252525</v>
+        <v>181.3252525252525</v>
       </c>
       <c r="C3" t="n">
-        <v>156.0282828282828</v>
+        <v>161.6282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>142.8969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="E3" t="n">
-        <v>142.8969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="F3" t="n">
-        <v>142.8969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="G3" t="n">
-        <v>123.2</v>
+        <v>128.8</v>
       </c>
       <c r="H3" t="n">
-        <v>123.2</v>
+        <v>128.8</v>
       </c>
       <c r="I3" t="n">
-        <v>164.384</v>
+        <v>128.8</v>
       </c>
       <c r="J3" t="n">
-        <v>226.16</v>
+        <v>128.8</v>
       </c>
       <c r="K3" t="n">
-        <v>308.528</v>
+        <v>128.8</v>
       </c>
       <c r="L3" t="n">
-        <v>316.896585858586</v>
+        <v>220.573</v>
       </c>
       <c r="M3" t="n">
-        <v>396.690585858586</v>
+        <v>299.377</v>
       </c>
       <c r="N3" t="n">
-        <v>453.3185858585859</v>
+        <v>355.213</v>
       </c>
       <c r="O3" t="n">
-        <v>453.3185858585859</v>
+        <v>406.353606060606</v>
       </c>
       <c r="P3" t="n">
-        <v>453.3185858585859</v>
+        <v>429.024606060606</v>
       </c>
       <c r="Q3" t="n">
-        <v>479.058585858586</v>
+        <v>454.269606060606</v>
       </c>
       <c r="R3" t="n">
-        <v>479.058585858586</v>
+        <v>484.860606060606</v>
       </c>
       <c r="S3" t="n">
-        <v>458.0484848484849</v>
+        <v>463.6484848484848</v>
       </c>
       <c r="T3" t="n">
-        <v>326.7353535353536</v>
+        <v>332.3353535353535</v>
       </c>
       <c r="U3" t="n">
-        <v>326.7353535353536</v>
+        <v>332.3353535353535</v>
       </c>
       <c r="V3" t="n">
-        <v>326.7353535353536</v>
+        <v>332.3353535353535</v>
       </c>
       <c r="W3" t="n">
-        <v>247.9474747474748</v>
+        <v>253.5474747474748</v>
       </c>
       <c r="X3" t="n">
-        <v>247.9474747474748</v>
+        <v>253.5474747474748</v>
       </c>
       <c r="Y3" t="n">
-        <v>208.5535353535354</v>
+        <v>214.1535353535353</v>
       </c>
     </row>
     <row r="4">
@@ -2514,76 +2514,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>162.5939393939394</v>
+        <v>168.1939393939394</v>
       </c>
       <c r="C4" t="n">
-        <v>142.8969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="D4" t="n">
-        <v>142.8969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="E4" t="n">
-        <v>142.8969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="F4" t="n">
-        <v>142.8969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="G4" t="n">
-        <v>123.2</v>
+        <v>128.8</v>
       </c>
       <c r="H4" t="n">
-        <v>123.2</v>
+        <v>128.8</v>
       </c>
       <c r="I4" t="n">
-        <v>123.2</v>
+        <v>128.8</v>
       </c>
       <c r="J4" t="n">
-        <v>133.496</v>
+        <v>128.8</v>
       </c>
       <c r="K4" t="n">
-        <v>174.68</v>
+        <v>169.588</v>
       </c>
       <c r="L4" t="n">
-        <v>246.752</v>
+        <v>239.1682929292929</v>
       </c>
       <c r="M4" t="n">
-        <v>305.954</v>
+        <v>239.1682929292929</v>
       </c>
       <c r="N4" t="n">
-        <v>305.954</v>
+        <v>239.1682929292929</v>
       </c>
       <c r="O4" t="n">
-        <v>305.954</v>
+        <v>310.5472929292929</v>
       </c>
       <c r="P4" t="n">
-        <v>335.241292929293</v>
+        <v>351.3352929292929</v>
       </c>
       <c r="Q4" t="n">
-        <v>355.833292929293</v>
+        <v>371.7292929292929</v>
       </c>
       <c r="R4" t="n">
-        <v>366.1292929292929</v>
+        <v>371.7292929292929</v>
       </c>
       <c r="S4" t="n">
-        <v>366.1292929292929</v>
+        <v>371.7292929292929</v>
       </c>
       <c r="T4" t="n">
-        <v>234.8161616161616</v>
+        <v>240.4161616161616</v>
       </c>
       <c r="U4" t="n">
-        <v>234.8161616161616</v>
+        <v>240.4161616161616</v>
       </c>
       <c r="V4" t="n">
-        <v>234.8161616161616</v>
+        <v>240.4161616161616</v>
       </c>
       <c r="W4" t="n">
-        <v>234.8161616161616</v>
+        <v>240.4161616161616</v>
       </c>
       <c r="X4" t="n">
-        <v>234.8161616161616</v>
+        <v>240.4161616161616</v>
       </c>
       <c r="Y4" t="n">
-        <v>195.4222222222222</v>
+        <v>201.0222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3383,10 +3383,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>9.692280000000011</v>
       </c>
       <c r="T2" t="n">
-        <v>17.82800000000008</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>

--- a/model/Output Files/Year 14.xlsx
+++ b/model/Output Files/Year 14.xlsx
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>76023.24100800001</v>
+        <v>77388.66797673714</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="D2" t="n">
-        <v>9272.289645445851</v>
+        <v>7066.221906540153</v>
       </c>
       <c r="E2" t="n">
-        <v>2370</v>
+        <v>750</v>
       </c>
       <c r="F2" t="n">
-        <v>14936.0475306448</v>
+        <v>15722.85675109298</v>
       </c>
     </row>
   </sheetData>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1215,13 +1215,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1403,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>20.6</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>51.5</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>61.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>72.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>82.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>92.7</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>92.7</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>82.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>51.5</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>30.9</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>20.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1495,28 +1495,28 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>92.7</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>82.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>51.65717783899595</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>51.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>51.5</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>30.9</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>20.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1569,25 +1569,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>70.28312417100291</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>72.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>41.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1727,46 +1727,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12.8</v>
+        <v>50.7</v>
       </c>
       <c r="H2" t="n">
-        <v>28.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>20.3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>22.8</v>
+        <v>19.5</v>
       </c>
       <c r="K2" t="n">
-        <v>46.1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>69.3</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="O2" t="n">
-        <v>61.5</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>53.8</v>
+        <v>67.03427201306116</v>
       </c>
       <c r="Q2" t="n">
-        <v>46.1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>17.7</v>
+        <v>14.9</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -1819,25 +1819,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>92.7</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>56.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>51.65717783899595</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>22.9</v>
+        <v>115.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>25.5</v>
+        <v>119</v>
       </c>
       <c r="R3" t="n">
-        <v>30.9</v>
+        <v>23.33079277624772</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1890,31 +1890,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>41.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>70.28312417100291</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>125.3831241710019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>72.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>41.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.6</v>
+        <v>60</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.007719999999991</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>31.4</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2360,76 +2360,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>187.8909090909091</v>
+        <v>179.0909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>168.1939393939394</v>
+        <v>159.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>155.0626262626263</v>
+        <v>146.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>141.9313131313131</v>
+        <v>133.1313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>141.472</v>
+        <v>170.193</v>
       </c>
       <c r="H2" t="n">
-        <v>169.39</v>
+        <v>170.193</v>
       </c>
       <c r="I2" t="n">
-        <v>189.487</v>
+        <v>170.193</v>
       </c>
       <c r="J2" t="n">
-        <v>212.059</v>
+        <v>189.498</v>
       </c>
       <c r="K2" t="n">
-        <v>257.698</v>
+        <v>189.498</v>
       </c>
       <c r="L2" t="n">
-        <v>318.682</v>
+        <v>189.498</v>
       </c>
       <c r="M2" t="n">
-        <v>387.289</v>
+        <v>337.998</v>
       </c>
       <c r="N2" t="n">
-        <v>463.519</v>
+        <v>486.498</v>
       </c>
       <c r="O2" t="n">
-        <v>524.404</v>
+        <v>486.498</v>
       </c>
       <c r="P2" t="n">
-        <v>577.6659999999999</v>
+        <v>552.8619292929305</v>
       </c>
       <c r="Q2" t="n">
-        <v>623.3049999999999</v>
+        <v>552.8619292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>640.828</v>
+        <v>567.6129292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>639.810101010101</v>
+        <v>567.6129292929305</v>
       </c>
       <c r="T2" t="n">
-        <v>608.0929292929293</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="U2" t="n">
-        <v>489.9111111111111</v>
+        <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>391.4262626262627</v>
+        <v>382.6262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>312.6383838383838</v>
+        <v>303.838383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>260.1131313131313</v>
+        <v>251.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>220.7191919191919</v>
+        <v>211.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2437,76 +2437,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>181.3252525252525</v>
+        <v>172.5252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>161.6282828282828</v>
+        <v>152.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G3" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="H3" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>128.8</v>
+        <v>199.2</v>
       </c>
       <c r="J3" t="n">
-        <v>128.8</v>
+        <v>199.2</v>
       </c>
       <c r="K3" t="n">
-        <v>128.8</v>
+        <v>199.2</v>
       </c>
       <c r="L3" t="n">
-        <v>220.573</v>
+        <v>199.2</v>
       </c>
       <c r="M3" t="n">
-        <v>299.377</v>
+        <v>199.2</v>
       </c>
       <c r="N3" t="n">
-        <v>355.213</v>
+        <v>199.2</v>
       </c>
       <c r="O3" t="n">
-        <v>406.353606060606</v>
+        <v>199.2</v>
       </c>
       <c r="P3" t="n">
-        <v>429.024606060606</v>
+        <v>313.941</v>
       </c>
       <c r="Q3" t="n">
-        <v>454.269606060606</v>
+        <v>431.751</v>
       </c>
       <c r="R3" t="n">
-        <v>484.860606060606</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="S3" t="n">
-        <v>463.6484848484848</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>332.3353535353535</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>332.3353535353535</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>332.3353535353535</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>253.5474747474748</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>253.5474747474748</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>214.1535353535353</v>
+        <v>205.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2514,76 +2514,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>168.1939393939394</v>
+        <v>159.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G4" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="H4" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="I4" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>128.8</v>
+        <v>149.7</v>
       </c>
       <c r="K4" t="n">
-        <v>169.588</v>
+        <v>149.7</v>
       </c>
       <c r="L4" t="n">
-        <v>239.1682929292929</v>
+        <v>149.7</v>
       </c>
       <c r="M4" t="n">
-        <v>239.1682929292929</v>
+        <v>273.8292929292919</v>
       </c>
       <c r="N4" t="n">
-        <v>239.1682929292929</v>
+        <v>273.8292929292919</v>
       </c>
       <c r="O4" t="n">
-        <v>310.5472929292929</v>
+        <v>273.8292929292919</v>
       </c>
       <c r="P4" t="n">
-        <v>351.3352929292929</v>
+        <v>273.8292929292919</v>
       </c>
       <c r="Q4" t="n">
-        <v>371.7292929292929</v>
+        <v>333.2292929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>371.7292929292929</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>371.7292929292929</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>240.4161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>240.4161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>240.4161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>240.4161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>240.4161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.0222222222222</v>
+        <v>192.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>148.7831241710019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -3347,46 +3347,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>58.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>48.7</v>
       </c>
       <c r="S2" t="n">
-        <v>9.692280000000011</v>
+        <v>28.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3445,22 +3445,22 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>48.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.33079277624772</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3531,10 +3531,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>38.8</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3689,16 +3689,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>84.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>95.63427201306116</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -3707,10 +3707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -3775,16 +3775,16 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3855,10 +3855,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 14.xlsx
+++ b/model/Output Files/Year 14.xlsx
@@ -20,6 +20,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1295,6 +1296,330 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="G2" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>291.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>327</v>
+      </c>
+      <c r="J2" t="n">
+        <v>388.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>502</v>
+      </c>
+      <c r="L2" t="n">
+        <v>596</v>
+      </c>
+      <c r="M2" t="n">
+        <v>670.5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>745</v>
+      </c>
+      <c r="O2" t="n">
+        <v>651</v>
+      </c>
+      <c r="P2" t="n">
+        <v>576.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>502</v>
+      </c>
+      <c r="R2" t="n">
+        <v>320.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>139</v>
+      </c>
+      <c r="T2" t="n">
+        <v>32</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-117</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-97.5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-78</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-52</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>324</v>
+      </c>
+      <c r="J3" t="n">
+        <v>486</v>
+      </c>
+      <c r="K3" t="n">
+        <v>648</v>
+      </c>
+      <c r="L3" t="n">
+        <v>729</v>
+      </c>
+      <c r="M3" t="n">
+        <v>751.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>583</v>
+      </c>
+      <c r="O3" t="n">
+        <v>567</v>
+      </c>
+      <c r="P3" t="n">
+        <v>333.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>340</v>
+      </c>
+      <c r="R3" t="n">
+        <v>243</v>
+      </c>
+      <c r="S3" t="n">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-130</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-78</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>81</v>
+      </c>
+      <c r="K4" t="n">
+        <v>324</v>
+      </c>
+      <c r="L4" t="n">
+        <v>567</v>
+      </c>
+      <c r="M4" t="n">
+        <v>589.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>648</v>
+      </c>
+      <c r="O4" t="n">
+        <v>567</v>
+      </c>
+      <c r="P4" t="n">
+        <v>324</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>162</v>
+      </c>
+      <c r="R4" t="n">
+        <v>81</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-130</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/model/Output Files/Year 14.xlsx
+++ b/model/Output Files/Year 14.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673714</v>
+        <v>77388.6679767371</v>
       </c>
       <c r="C2" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7066.221906540153</v>
+        <v>10661.60663177227</v>
       </c>
       <c r="E2" t="n">
-        <v>750</v>
+        <v>1620</v>
       </c>
       <c r="F2" t="n">
-        <v>15722.85675109298</v>
+        <v>15104.50128878651</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>150</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>50.7</v>
+        <v>62.3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>49.7</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>46.6</v>
       </c>
       <c r="J2" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>25.6</v>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>28.8</v>
       </c>
       <c r="N2" t="n">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P2" t="n">
-        <v>67.03427201306116</v>
+        <v>17.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>94.03427201306101</v>
       </c>
       <c r="R2" t="n">
-        <v>14.9</v>
+        <v>43.9</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>43.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>80</v>
+        <v>23.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>99.83079277624756</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P3" t="n">
-        <v>115.9</v>
+        <v>0.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>23.33079277624772</v>
+        <v>17.4</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>15.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="M4" t="n">
-        <v>125.3831241710019</v>
+        <v>23</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>28.38312417100185</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>11.6</v>
       </c>
       <c r="R4" t="n">
-        <v>30</v>
+        <v>15.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2700,43 +2700,43 @@
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>170.193</v>
+        <v>181.677</v>
       </c>
       <c r="H2" t="n">
-        <v>170.193</v>
+        <v>230.88</v>
       </c>
       <c r="I2" t="n">
-        <v>170.193</v>
+        <v>277.014</v>
       </c>
       <c r="J2" t="n">
-        <v>189.498</v>
+        <v>277.014</v>
       </c>
       <c r="K2" t="n">
-        <v>189.498</v>
+        <v>291.468</v>
       </c>
       <c r="L2" t="n">
-        <v>189.498</v>
+        <v>316.812</v>
       </c>
       <c r="M2" t="n">
-        <v>337.998</v>
+        <v>345.324</v>
       </c>
       <c r="N2" t="n">
-        <v>486.498</v>
+        <v>377.004</v>
       </c>
       <c r="O2" t="n">
-        <v>486.498</v>
+        <v>397.794</v>
       </c>
       <c r="P2" t="n">
-        <v>552.8619292929305</v>
+        <v>415.4160000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.8619292929305</v>
+        <v>508.5099292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>567.6129292929305</v>
+        <v>551.9709292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>567.6129292929305</v>
+        <v>556.1289292929305</v>
       </c>
       <c r="T2" t="n">
         <v>599.2929292929305</v>
@@ -2783,31 +2783,31 @@
         <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>199.2</v>
+        <v>142.968</v>
       </c>
       <c r="J3" t="n">
-        <v>199.2</v>
+        <v>177.42</v>
       </c>
       <c r="K3" t="n">
-        <v>199.2</v>
+        <v>223.356</v>
       </c>
       <c r="L3" t="n">
-        <v>199.2</v>
+        <v>275.034</v>
       </c>
       <c r="M3" t="n">
-        <v>199.2</v>
+        <v>373.8664848484851</v>
       </c>
       <c r="N3" t="n">
-        <v>199.2</v>
+        <v>394.0624848484852</v>
       </c>
       <c r="O3" t="n">
-        <v>199.2</v>
+        <v>434.2564848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>313.941</v>
+        <v>434.6524848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>431.751</v>
+        <v>437.6224848484852</v>
       </c>
       <c r="R3" t="n">
         <v>454.8484848484852</v>
@@ -2863,28 +2863,28 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>149.7</v>
+        <v>135.642</v>
       </c>
       <c r="K4" t="n">
-        <v>149.7</v>
+        <v>158.61</v>
       </c>
       <c r="L4" t="n">
-        <v>149.7</v>
+        <v>198.804</v>
       </c>
       <c r="M4" t="n">
-        <v>273.8292929292919</v>
+        <v>221.574</v>
       </c>
       <c r="N4" t="n">
-        <v>273.8292929292919</v>
+        <v>267.51</v>
       </c>
       <c r="O4" t="n">
-        <v>273.8292929292919</v>
+        <v>307.704</v>
       </c>
       <c r="P4" t="n">
-        <v>273.8292929292919</v>
+        <v>335.8032929292918</v>
       </c>
       <c r="Q4" t="n">
-        <v>333.2292929292918</v>
+        <v>347.2872929292918</v>
       </c>
       <c r="R4" t="n">
         <v>362.9292929292918</v>
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>79.43427201306102</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>65.23079277624753</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>148.7831241710019</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -3675,34 +3675,34 @@
         <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>31.2</v>
+        <v>48.8</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>89.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>48.7</v>
@@ -3770,19 +3770,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>48.9</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.33079277624772</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>18.4</v>
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>10</v>
@@ -4014,16 +4014,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>84.3</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>95.63427201306116</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>13.2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>32</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -4100,16 +4100,16 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>95.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>23.2</v>
+        <v>11.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4177,13 +4177,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>5.18312417100185</v>
       </c>
       <c r="Q4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 14.xlsx
+++ b/model/Output Files/Year 14.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.67161670145</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>10661.6070867717</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1620</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15104.50202768189</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1236,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,50 +1245,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Type 3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Type 4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Type 5</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -1296,249 +1276,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J2" t="n">
-        <v>15</v>
-      </c>
-      <c r="K2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L2" t="n">
-        <v>15</v>
-      </c>
-      <c r="M2" t="n">
-        <v>15</v>
-      </c>
-      <c r="N2" t="n">
-        <v>15</v>
-      </c>
-      <c r="O2" t="n">
-        <v>15</v>
-      </c>
-      <c r="P2" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>34</v>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34</v>
-      </c>
-      <c r="E3" t="n">
-        <v>34</v>
-      </c>
-      <c r="F3" t="n">
-        <v>34</v>
-      </c>
-      <c r="G3" t="n">
-        <v>34</v>
-      </c>
-      <c r="H3" t="n">
-        <v>34</v>
-      </c>
-      <c r="I3" t="n">
-        <v>34</v>
-      </c>
-      <c r="J3" t="n">
-        <v>34</v>
-      </c>
-      <c r="K3" t="n">
-        <v>34</v>
-      </c>
-      <c r="L3" t="n">
-        <v>34</v>
-      </c>
-      <c r="M3" t="n">
-        <v>34</v>
-      </c>
-      <c r="N3" t="n">
-        <v>34</v>
-      </c>
-      <c r="O3" t="n">
-        <v>34</v>
-      </c>
-      <c r="P3" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1639,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>291.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>388.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>596</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>670.5</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>745</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>651</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>576.5</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>320.5</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1716,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1731,46 +1481,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>729</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>751.5</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>333.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>57.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1779,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1793,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1808,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1817,37 +1567,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>589.5</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1862,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1978,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2061,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2141,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2302,37 +2052,37 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.63427201308214</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>14.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>104.8</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>28.8</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>96.7</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>83.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -2385,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>34.6</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.63079277624759</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2465,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>45.78322417000107</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>31.5999000010007</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2611,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2668,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2688,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2703,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2742,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2751,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2765,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2780,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2819,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2834,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2935,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090909316</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3939393939626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2626262626488</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313349</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>123.762</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>133.86</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>133.86</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>221.6079292929513</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>236.0619292929513</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>339.8139292929513</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>368.3259292929513</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>400.0059292929514</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>420.7959292929514</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>516.5289292929514</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>599.2929292929514</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>599.2929292929514</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>599.2929292929514</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>599.2929292929514</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>481.1111111111111</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626262854</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>303.8383838384059</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313131541</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919192144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3012,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>172.5252525252518</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>152.8282828282828</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>142.968</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>177.42</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>223.356</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>275.034</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>309.288</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>329.484</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>369.6780000000001</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>370.0740000000001</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>373.0440000000001</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>454.8484848484852</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>454.8484848484852</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>323.5353535353539</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>323.5353535353539</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>323.5353535353539</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>244.7474747474744</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>244.7474747474744</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.3535353535346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3089,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>159.3939393939379</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>125.742</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>148.71</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>194.0353919283011</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>216.8053919283011</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>262.7413919283011</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>302.9353919283011</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>325.9033919283011</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>357.1872929292918</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>362.9292929292918</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>362.9292929292918</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.2222222222222</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3634,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>24.2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -3708,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>65.23079277624758</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -3937,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3949,10 +3699,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>78.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -3961,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4035,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>18.4</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4106,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -4252,10 +4002,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.83427201308214</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -4279,13 +4029,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>22.4</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4359,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4415,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5.183224170001075</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 14.xlsx
+++ b/model/Output Files/Year 14.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>77388.6679767371</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>10661.60663177227</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>15104.50128878651</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1389,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>142.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>291.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>388.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>670.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>576.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>320.5</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="3">
@@ -1466,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1481,46 +1481,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>729</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>751.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>333.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="4">
@@ -1543,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1567,37 +1567,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>589.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
   </sheetData>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>62.3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>49.7</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>46.6</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>25.6</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>28.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>17.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>94.03427201306101</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>43.9</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>43.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>99.83079277624756</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>28.38312417100185</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2418,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -2438,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2501,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -2515,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>179.0909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>159.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>146.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>133.1313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>181.677</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>230.88</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>277.014</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>277.014</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>291.468</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>316.812</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>345.324</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>377.004</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>397.794</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>415.4160000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>508.5099292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>551.9709292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>556.1289292929305</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>382.6262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>303.838383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>251.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>211.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>172.5252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>152.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>142.968</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>177.42</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>223.356</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>275.034</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>373.8664848484851</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>394.0624848484852</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>434.2564848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>434.6524848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>437.6224848484852</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>159.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>135.642</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>158.61</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>198.804</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>221.574</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>267.51</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>307.704</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>335.8032929292918</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>347.2872929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>192.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>79.43427201306102</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>65.23079277624753</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>48.8</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -3705,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>48.7</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>38.8</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -4035,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>5.18312417100185</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 14.xlsx
+++ b/model/Output Files/Year 14.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.6679767371</v>
+        <v>77388.66797673708</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>10661.60663177227</v>
+        <v>14805.93863177227</v>
       </c>
       <c r="E2" t="n">
-        <v>1620</v>
+        <v>750</v>
       </c>
       <c r="F2" t="n">
-        <v>15104.50128878651</v>
+        <v>14344.87321016899</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>62.3</v>
+        <v>50.7</v>
       </c>
       <c r="H2" t="n">
-        <v>49.7</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>46.6</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>93.03427201306502</v>
       </c>
       <c r="K2" t="n">
-        <v>14.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>25.6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>28.8</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="O2" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>17.8</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>94.03427201306101</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>43.9</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>4.2</v>
+        <v>40.4</v>
       </c>
       <c r="T2" t="n">
-        <v>43.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,37 +2135,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>46.4</v>
+        <v>80</v>
       </c>
       <c r="L3" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99.83079277624756</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40.6</v>
+        <v>140</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>17.4</v>
+        <v>90</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>28.23079277624777</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.8</v>
+        <v>81</v>
       </c>
       <c r="K4" t="n">
-        <v>23.2</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>28.38312417100185</v>
+        <v>40</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.6</v>
+        <v>3.383124171001853</v>
       </c>
       <c r="R4" t="n">
-        <v>15.8</v>
+        <v>81</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090909106</v>
+        <v>179.090909090909</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3939393939416</v>
+        <v>159.39393939394</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2626262626277</v>
+        <v>146.2626262626262</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313139</v>
+        <v>133.1313131313123</v>
       </c>
       <c r="F2" t="n">
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>181.677</v>
+        <v>170.1929999999984</v>
       </c>
       <c r="H2" t="n">
-        <v>230.88</v>
+        <v>170.1929999999984</v>
       </c>
       <c r="I2" t="n">
-        <v>277.014</v>
+        <v>170.1929999999984</v>
       </c>
       <c r="J2" t="n">
-        <v>277.014</v>
+        <v>262.2969292929328</v>
       </c>
       <c r="K2" t="n">
-        <v>291.468</v>
+        <v>262.2969292929328</v>
       </c>
       <c r="L2" t="n">
-        <v>316.812</v>
+        <v>262.2969292929328</v>
       </c>
       <c r="M2" t="n">
-        <v>345.324</v>
+        <v>410.7969292929308</v>
       </c>
       <c r="N2" t="n">
-        <v>377.004</v>
+        <v>559.2969292929289</v>
       </c>
       <c r="O2" t="n">
-        <v>397.794</v>
+        <v>559.2969292929289</v>
       </c>
       <c r="P2" t="n">
-        <v>415.4160000000001</v>
+        <v>559.2969292929289</v>
       </c>
       <c r="Q2" t="n">
-        <v>508.5099292929305</v>
+        <v>559.2969292929289</v>
       </c>
       <c r="R2" t="n">
-        <v>551.9709292929305</v>
+        <v>559.2969292929289</v>
       </c>
       <c r="S2" t="n">
-        <v>556.1289292929305</v>
+        <v>599.2929292929289</v>
       </c>
       <c r="T2" t="n">
-        <v>599.2929292929305</v>
+        <v>599.2929292929289</v>
       </c>
       <c r="U2" t="n">
         <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626262645</v>
+        <v>382.6262626262629</v>
       </c>
       <c r="W2" t="n">
-        <v>303.838383838385</v>
+        <v>303.8383838383834</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313131332</v>
+        <v>251.3131313131316</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919191934</v>
+        <v>211.9191919191918</v>
       </c>
     </row>
     <row r="3">
@@ -2762,19 +2762,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>172.5252525252518</v>
+        <v>172.5252525252502</v>
       </c>
       <c r="C3" t="n">
-        <v>152.8282828282828</v>
+        <v>152.8282828282812</v>
       </c>
       <c r="D3" t="n">
-        <v>139.6969696969689</v>
+        <v>139.6969696969674</v>
       </c>
       <c r="E3" t="n">
-        <v>139.6969696969689</v>
+        <v>139.6969696969674</v>
       </c>
       <c r="F3" t="n">
-        <v>139.6969696969689</v>
+        <v>139.6969696969674</v>
       </c>
       <c r="G3" t="n">
         <v>120</v>
@@ -2783,55 +2783,55 @@
         <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>142.968</v>
+        <v>120</v>
       </c>
       <c r="J3" t="n">
-        <v>177.42</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>223.356</v>
+        <v>199.2</v>
       </c>
       <c r="L3" t="n">
-        <v>275.034</v>
+        <v>199.2</v>
       </c>
       <c r="M3" t="n">
-        <v>373.8664848484851</v>
+        <v>199.2</v>
       </c>
       <c r="N3" t="n">
-        <v>394.0624848484852</v>
+        <v>199.2</v>
       </c>
       <c r="O3" t="n">
-        <v>434.2564848484852</v>
+        <v>337.8</v>
       </c>
       <c r="P3" t="n">
-        <v>434.6524848484852</v>
+        <v>337.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>437.6224848484852</v>
+        <v>337.8</v>
       </c>
       <c r="R3" t="n">
-        <v>454.8484848484852</v>
+        <v>426.9</v>
       </c>
       <c r="S3" t="n">
-        <v>454.8484848484852</v>
+        <v>454.8484848484836</v>
       </c>
       <c r="T3" t="n">
-        <v>323.5353535353539</v>
+        <v>323.5353535353523</v>
       </c>
       <c r="U3" t="n">
-        <v>323.5353535353539</v>
+        <v>323.5353535353523</v>
       </c>
       <c r="V3" t="n">
-        <v>323.5353535353539</v>
+        <v>323.5353535353523</v>
       </c>
       <c r="W3" t="n">
-        <v>244.7474747474744</v>
+        <v>244.7474747474728</v>
       </c>
       <c r="X3" t="n">
-        <v>244.7474747474744</v>
+        <v>244.7474747474728</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.3535353535346</v>
+        <v>205.353535353533</v>
       </c>
     </row>
     <row r="4">
@@ -2839,19 +2839,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>159.3939393939379</v>
+        <v>159.3939393939363</v>
       </c>
       <c r="C4" t="n">
-        <v>139.6969696969689</v>
+        <v>139.6969696969674</v>
       </c>
       <c r="D4" t="n">
-        <v>139.6969696969689</v>
+        <v>139.6969696969674</v>
       </c>
       <c r="E4" t="n">
-        <v>139.6969696969689</v>
+        <v>139.6969696969674</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6969696969689</v>
+        <v>139.6969696969674</v>
       </c>
       <c r="G4" t="n">
         <v>120</v>
@@ -2863,49 +2863,49 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>135.642</v>
+        <v>200.1899999999984</v>
       </c>
       <c r="K4" t="n">
-        <v>158.61</v>
+        <v>239.7899999999984</v>
       </c>
       <c r="L4" t="n">
-        <v>198.804</v>
+        <v>239.7899999999984</v>
       </c>
       <c r="M4" t="n">
-        <v>221.574</v>
+        <v>239.7899999999984</v>
       </c>
       <c r="N4" t="n">
-        <v>267.51</v>
+        <v>239.7899999999984</v>
       </c>
       <c r="O4" t="n">
-        <v>307.704</v>
+        <v>239.7899999999984</v>
       </c>
       <c r="P4" t="n">
-        <v>335.8032929292918</v>
+        <v>279.3899999999984</v>
       </c>
       <c r="Q4" t="n">
-        <v>347.2872929292918</v>
+        <v>282.7392929292902</v>
       </c>
       <c r="R4" t="n">
-        <v>362.9292929292918</v>
+        <v>362.9292929292902</v>
       </c>
       <c r="S4" t="n">
-        <v>362.9292929292918</v>
+        <v>362.9292929292902</v>
       </c>
       <c r="T4" t="n">
-        <v>231.6161616161605</v>
+        <v>231.6161616161589</v>
       </c>
       <c r="U4" t="n">
-        <v>231.6161616161605</v>
+        <v>231.6161616161589</v>
       </c>
       <c r="V4" t="n">
-        <v>231.6161616161605</v>
+        <v>231.6161616161589</v>
       </c>
       <c r="W4" t="n">
-        <v>231.6161616161605</v>
+        <v>231.6161616161589</v>
       </c>
       <c r="X4" t="n">
-        <v>231.6161616161605</v>
+        <v>231.6161616161589</v>
       </c>
       <c r="Y4" t="n">
         <v>192.2222222222222</v>
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>79.43427201306102</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>65.23079277624753</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>39.5</v>
+        <v>13</v>
       </c>
       <c r="I2" t="n">
-        <v>48.8</v>
+        <v>31.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>58.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3696,16 +3696,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R2" t="n">
-        <v>48.7</v>
+        <v>33.8</v>
       </c>
       <c r="S2" t="n">
         <v>28.4</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -3770,19 +3770,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
         <v>18.4</v>
@@ -3838,7 +3838,7 @@
         <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3853,10 +3853,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.383124171001853</v>
       </c>
       <c r="R4" t="n">
         <v>10</v>
@@ -4005,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>73.53427201306502</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -4014,16 +4014,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>173.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.6</v>
       </c>
       <c r="T2" t="n">
         <v>32</v>
@@ -4091,13 +4091,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S3" t="n">
-        <v>11.6</v>
+        <v>3.830792776247787</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4177,13 +4177,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5.18312417100185</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 14.xlsx
+++ b/model/Output Files/Year 14.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673708</v>
+        <v>80576.48655035206</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>14805.93863177227</v>
+        <v>16153.46139577594</v>
       </c>
       <c r="E2" t="n">
-        <v>750</v>
+        <v>955</v>
       </c>
       <c r="F2" t="n">
-        <v>14344.87321016899</v>
+        <v>14631.45544507343</v>
       </c>
     </row>
   </sheetData>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1404,46 +1404,46 @@
         <v>-13</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5</v>
+        <v>22.1</v>
       </c>
       <c r="H2" t="n">
-        <v>291.5</v>
+        <v>50.7</v>
       </c>
       <c r="I2" t="n">
-        <v>327</v>
+        <v>26</v>
       </c>
       <c r="J2" t="n">
-        <v>388.5</v>
+        <v>27.3</v>
       </c>
       <c r="K2" t="n">
-        <v>502</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>596</v>
+        <v>114.4</v>
       </c>
       <c r="M2" t="n">
-        <v>670.5</v>
+        <v>128.7</v>
       </c>
       <c r="N2" t="n">
-        <v>745</v>
+        <v>143</v>
       </c>
       <c r="O2" t="n">
-        <v>651</v>
+        <v>109.2</v>
       </c>
       <c r="P2" t="n">
-        <v>576.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>502</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>320.5</v>
+        <v>19.5</v>
       </c>
       <c r="S2" t="n">
-        <v>139</v>
+        <v>-41.60000000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>-88.40000000000001</v>
       </c>
       <c r="U2" t="n">
         <v>-117</v>
@@ -1487,37 +1487,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="J3" t="n">
-        <v>486</v>
+        <v>124.8</v>
       </c>
       <c r="K3" t="n">
-        <v>648</v>
+        <v>166.4</v>
       </c>
       <c r="L3" t="n">
-        <v>729</v>
+        <v>187.2</v>
       </c>
       <c r="M3" t="n">
-        <v>751.5</v>
+        <v>149.5</v>
       </c>
       <c r="N3" t="n">
-        <v>583</v>
+        <v>101.4</v>
       </c>
       <c r="O3" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="P3" t="n">
-        <v>333.5</v>
+        <v>32.49999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>340</v>
+        <v>39</v>
       </c>
       <c r="R3" t="n">
-        <v>243</v>
+        <v>62.4</v>
       </c>
       <c r="S3" t="n">
-        <v>57.99999999999999</v>
+        <v>-62.40000000000001</v>
       </c>
       <c r="T3" t="n">
         <v>-130</v>
@@ -1567,31 +1567,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>20.8</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="L4" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="M4" t="n">
-        <v>589.5</v>
+        <v>107.9</v>
       </c>
       <c r="N4" t="n">
-        <v>648</v>
+        <v>166.4</v>
       </c>
       <c r="O4" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="P4" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>162</v>
+        <v>41.6</v>
       </c>
       <c r="R4" t="n">
-        <v>81</v>
+        <v>20.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,43 +2052,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="H2" t="n">
         <v>50.7</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J2" t="n">
-        <v>93.03427201306502</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>95.2</v>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>79.77379859198176</v>
       </c>
       <c r="N2" t="n">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>88.8</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>40.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -2135,37 +2135,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>11.29776553412938</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="O3" t="n">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="R3" t="n">
-        <v>90</v>
+        <v>62.4</v>
       </c>
       <c r="S3" t="n">
-        <v>28.23079277624777</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>20.8</v>
       </c>
       <c r="K4" t="n">
-        <v>40</v>
+        <v>15.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>40</v>
+        <v>5.983124171001808</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.383124171001853</v>
+        <v>41.6</v>
       </c>
       <c r="R4" t="n">
-        <v>81</v>
+        <v>20.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.090909090909</v>
+        <v>211.8909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>159.39393939394</v>
+        <v>192.1939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2626262626262</v>
+        <v>179.0626262626278</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313123</v>
+        <v>165.9313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="G2" t="n">
-        <v>170.1929999999984</v>
+        <v>170.323</v>
       </c>
       <c r="H2" t="n">
-        <v>170.1929999999984</v>
+        <v>220.516</v>
       </c>
       <c r="I2" t="n">
-        <v>170.1929999999984</v>
+        <v>246.256</v>
       </c>
       <c r="J2" t="n">
-        <v>262.2969292929328</v>
+        <v>246.256</v>
       </c>
       <c r="K2" t="n">
-        <v>262.2969292929328</v>
+        <v>326.05</v>
       </c>
       <c r="L2" t="n">
-        <v>262.2969292929328</v>
+        <v>420.298</v>
       </c>
       <c r="M2" t="n">
-        <v>410.7969292929308</v>
+        <v>499.2740606060619</v>
       </c>
       <c r="N2" t="n">
-        <v>559.2969292929289</v>
+        <v>617.0840606060619</v>
       </c>
       <c r="O2" t="n">
-        <v>559.2969292929289</v>
+        <v>704.9960606060619</v>
       </c>
       <c r="P2" t="n">
-        <v>559.2969292929289</v>
+        <v>704.9960606060619</v>
       </c>
       <c r="Q2" t="n">
-        <v>559.2969292929289</v>
+        <v>763.4060606060618</v>
       </c>
       <c r="R2" t="n">
-        <v>559.2969292929289</v>
+        <v>763.4060606060618</v>
       </c>
       <c r="S2" t="n">
-        <v>599.2929292929289</v>
+        <v>721.3858585858598</v>
       </c>
       <c r="T2" t="n">
-        <v>599.2929292929289</v>
+        <v>632.0929292929304</v>
       </c>
       <c r="U2" t="n">
-        <v>481.1111111111111</v>
+        <v>513.9111111111112</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626262629</v>
+        <v>415.4262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>303.8383838383834</v>
+        <v>336.638383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313131316</v>
+        <v>284.1131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919191918</v>
+        <v>244.7191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>172.5252525252502</v>
+        <v>205.3252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>152.8282828282812</v>
+        <v>185.6282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>139.6969696969674</v>
+        <v>172.496969696969</v>
       </c>
       <c r="E3" t="n">
-        <v>139.6969696969674</v>
+        <v>172.496969696969</v>
       </c>
       <c r="F3" t="n">
-        <v>139.6969696969674</v>
+        <v>172.496969696969</v>
       </c>
       <c r="G3" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="H3" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="I3" t="n">
-        <v>120</v>
+        <v>235.168</v>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>342.088</v>
       </c>
       <c r="K3" t="n">
-        <v>199.2</v>
+        <v>350.008</v>
       </c>
       <c r="L3" t="n">
-        <v>199.2</v>
+        <v>361.1927878787881</v>
       </c>
       <c r="M3" t="n">
-        <v>199.2</v>
+        <v>361.1927878787881</v>
       </c>
       <c r="N3" t="n">
-        <v>199.2</v>
+        <v>443.3627878787881</v>
       </c>
       <c r="O3" t="n">
-        <v>337.8</v>
+        <v>450.2927878787881</v>
       </c>
       <c r="P3" t="n">
-        <v>337.8</v>
+        <v>450.2927878787881</v>
       </c>
       <c r="Q3" t="n">
-        <v>337.8</v>
+        <v>488.9027878787882</v>
       </c>
       <c r="R3" t="n">
-        <v>426.9</v>
+        <v>550.6787878787882</v>
       </c>
       <c r="S3" t="n">
-        <v>454.8484848484836</v>
+        <v>487.6484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>323.5353535353523</v>
+        <v>356.3353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>323.5353535353523</v>
+        <v>356.3353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>323.5353535353523</v>
+        <v>356.3353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>244.7474747474728</v>
+        <v>277.5474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>244.7474747474728</v>
+        <v>277.5474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.353535353533</v>
+        <v>238.1535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>159.3939393939363</v>
+        <v>192.1939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>139.6969696969674</v>
+        <v>172.496969696969</v>
       </c>
       <c r="D4" t="n">
-        <v>139.6969696969674</v>
+        <v>172.496969696969</v>
       </c>
       <c r="E4" t="n">
-        <v>139.6969696969674</v>
+        <v>172.496969696969</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6969696969674</v>
+        <v>172.496969696969</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="H4" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="I4" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="J4" t="n">
-        <v>200.1899999999984</v>
+        <v>173.392</v>
       </c>
       <c r="K4" t="n">
-        <v>239.7899999999984</v>
+        <v>188.44</v>
       </c>
       <c r="L4" t="n">
-        <v>239.7899999999984</v>
+        <v>313.18</v>
       </c>
       <c r="M4" t="n">
-        <v>239.7899999999984</v>
+        <v>313.18</v>
       </c>
       <c r="N4" t="n">
-        <v>239.7899999999984</v>
+        <v>321.1</v>
       </c>
       <c r="O4" t="n">
-        <v>239.7899999999984</v>
+        <v>328.03</v>
       </c>
       <c r="P4" t="n">
-        <v>279.3899999999984</v>
+        <v>333.9532929292918</v>
       </c>
       <c r="Q4" t="n">
-        <v>282.7392929292902</v>
+        <v>375.1372929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>362.9292929292902</v>
+        <v>395.7292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>362.9292929292902</v>
+        <v>395.7292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>231.6161616161589</v>
+        <v>264.4161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>231.6161616161589</v>
+        <v>264.4161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>231.6161616161589</v>
+        <v>264.4161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>231.6161616161589</v>
+        <v>264.4161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>231.6161616161589</v>
+        <v>264.4161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.2222222222222</v>
+        <v>225.0222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3348,46 +3348,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>23.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>44.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>108.8</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>95.07379859198177</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>112.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>21.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>30.1</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3431,10 +3431,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -3443,25 +3443,25 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>15.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="S3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="R4" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3672,46 +3672,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.7</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>31.2</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>20.8</v>
+        <v>7.2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>31.2</v>
+        <v>7.8</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>33.8</v>
+        <v>3.7</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3755,37 +3755,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>28.6</v>
+        <v>3.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>18.4</v>
+        <v>0.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,31 +3835,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.383124171001853</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,34 +3996,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>73.53427201306502</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>173.4</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -4032,10 +4032,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.6</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -4088,28 +4088,28 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.297765534129379</v>
       </c>
       <c r="M3" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R3" t="n">
-        <v>60</v>
+        <v>8.4</v>
       </c>
       <c r="S3" t="n">
-        <v>3.830792776247787</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,16 +4159,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>2.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4</v>
+        <v>16.3</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4177,13 +4177,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.983124171001807</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="R4" t="n">
-        <v>20</v>
+        <v>2.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 14.xlsx
+++ b/model/Output Files/Year 14.xlsx
@@ -525,76 +525,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>6.839893888378889</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>80576.48655035206</v>
+        <v>71764.87527395159</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>16153.46139577594</v>
+        <v>15226.72135067353</v>
       </c>
       <c r="E2" t="n">
-        <v>955</v>
+        <v>1960</v>
       </c>
       <c r="F2" t="n">
-        <v>14631.45544507343</v>
+        <v>12661.84925634793</v>
       </c>
     </row>
   </sheetData>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1279,13 +1279,13 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1389,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>-27.5</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>-16.5</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="G2" t="n">
-        <v>22.1</v>
+        <v>14.7</v>
       </c>
       <c r="H2" t="n">
-        <v>50.7</v>
+        <v>34.9</v>
       </c>
       <c r="I2" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>27.3</v>
+        <v>11.1</v>
       </c>
       <c r="K2" t="n">
-        <v>80.59999999999999</v>
+        <v>54.2</v>
       </c>
       <c r="L2" t="n">
-        <v>114.4</v>
+        <v>80.80000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>128.7</v>
+        <v>90.89999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="O2" t="n">
-        <v>109.2</v>
+        <v>74.39999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>94.90000000000001</v>
+        <v>64.30000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.59999999999999</v>
+        <v>54.2</v>
       </c>
       <c r="R2" t="n">
-        <v>19.5</v>
+        <v>6.5</v>
       </c>
       <c r="S2" t="n">
-        <v>-41.60000000000001</v>
+        <v>-41.2</v>
       </c>
       <c r="T2" t="n">
-        <v>-88.40000000000001</v>
+        <v>-78.8</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>-99</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>-82.5</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>-66</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>-44</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="3">
@@ -1466,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>-27.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>-16.5</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1481,46 +1481,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>-16.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>83.2</v>
+        <v>62.4</v>
       </c>
       <c r="J3" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="K3" t="n">
         <v>124.8</v>
       </c>
-      <c r="K3" t="n">
-        <v>166.4</v>
-      </c>
       <c r="L3" t="n">
-        <v>187.2</v>
+        <v>140.4</v>
       </c>
       <c r="M3" t="n">
-        <v>149.5</v>
+        <v>106.5</v>
       </c>
       <c r="N3" t="n">
-        <v>101.4</v>
+        <v>69.8</v>
       </c>
       <c r="O3" t="n">
-        <v>145.6</v>
+        <v>109.2</v>
       </c>
       <c r="P3" t="n">
-        <v>32.49999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="R3" t="n">
-        <v>62.4</v>
+        <v>46.8</v>
       </c>
       <c r="S3" t="n">
-        <v>-62.40000000000001</v>
+        <v>-56.8</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>-110</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>-66</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="4">
@@ -1543,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>-27.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>-16.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>-16.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1567,37 +1567,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.8</v>
+        <v>15.6</v>
       </c>
       <c r="K4" t="n">
-        <v>83.2</v>
+        <v>62.4</v>
       </c>
       <c r="L4" t="n">
-        <v>145.6</v>
+        <v>109.2</v>
       </c>
       <c r="M4" t="n">
-        <v>107.9</v>
+        <v>75.29999999999998</v>
       </c>
       <c r="N4" t="n">
-        <v>166.4</v>
+        <v>124.8</v>
       </c>
       <c r="O4" t="n">
-        <v>145.6</v>
+        <v>109.2</v>
       </c>
       <c r="P4" t="n">
-        <v>83.2</v>
+        <v>62.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.6</v>
+        <v>31.2</v>
       </c>
       <c r="R4" t="n">
-        <v>20.8</v>
+        <v>15.6</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>-110</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>-33</v>
       </c>
     </row>
   </sheetData>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>31.6</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>47.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>55.3</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>71.10000000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>71.10000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>55.3</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>23.7</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1814,34 +1814,34 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>47.4</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>71.10000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>53.93587389041967</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>28.60000000000036</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1897,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>49.33187429853691</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>55.3</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2052,40 +2052,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>17.7</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>50.7</v>
+        <v>25.6</v>
       </c>
       <c r="I2" t="n">
-        <v>26</v>
+        <v>15.3</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="K2" t="n">
-        <v>80.59999999999999</v>
+        <v>36.3</v>
       </c>
       <c r="L2" t="n">
-        <v>95.2</v>
+        <v>49.40000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>79.77379859198176</v>
+        <v>54.7</v>
       </c>
       <c r="N2" t="n">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="O2" t="n">
-        <v>88.8</v>
+        <v>46.90000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>59</v>
+        <v>36.13989388837889</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>108</v>
+        <v>47.4</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>63.2</v>
       </c>
       <c r="L3" t="n">
-        <v>11.29776553412938</v>
+        <v>71.10000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>55.60000000000036</v>
       </c>
       <c r="N3" t="n">
-        <v>83</v>
+        <v>37.2</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>53.93587389041967</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>15.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>126</v>
+        <v>49.3318742985369</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>39.80000000000037</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>63.2</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>55.3</v>
       </c>
       <c r="P4" t="n">
-        <v>5.983124171001808</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>20.5</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5</v>
+        <v>9.5</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>4.000000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>4.000000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>4.000000000000001</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2412,25 +2412,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>41.6</v>
+        <v>13.4</v>
       </c>
       <c r="T2" t="n">
-        <v>88.40000000000001</v>
+        <v>56</v>
       </c>
       <c r="U2" t="n">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>75.5</v>
       </c>
       <c r="W2" t="n">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="X2" t="n">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="Y2" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -2438,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>27.5</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5</v>
+        <v>16.49999999999818</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>11.00000000000182</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.5</v>
+        <v>16.49999999999818</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2489,10 +2489,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.4</v>
+        <v>41.40000000000073</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2501,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>78</v>
+        <v>66.00000000000182</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -2515,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>27.5</v>
       </c>
       <c r="C4" t="n">
-        <v>19.5</v>
+        <v>16.49999999999818</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>19.5</v>
+        <v>16.49999999999818</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>211.8909090909106</v>
+        <v>124.7676767676767</v>
       </c>
       <c r="C2" t="n">
-        <v>192.1939393939416</v>
+        <v>115.1717171717171</v>
       </c>
       <c r="D2" t="n">
-        <v>179.0626262626278</v>
+        <v>111.1313131313131</v>
       </c>
       <c r="E2" t="n">
-        <v>165.9313131313139</v>
+        <v>107.090909090909</v>
       </c>
       <c r="F2" t="n">
-        <v>152.8</v>
+        <v>103.050505050505</v>
       </c>
       <c r="G2" t="n">
-        <v>170.323</v>
+        <v>117.900505050505</v>
       </c>
       <c r="H2" t="n">
-        <v>220.516</v>
+        <v>143.244505050505</v>
       </c>
       <c r="I2" t="n">
-        <v>246.256</v>
+        <v>158.391505050505</v>
       </c>
       <c r="J2" t="n">
-        <v>246.256</v>
+        <v>173.637505050505</v>
       </c>
       <c r="K2" t="n">
-        <v>326.05</v>
+        <v>209.574505050505</v>
       </c>
       <c r="L2" t="n">
-        <v>420.298</v>
+        <v>258.480505050505</v>
       </c>
       <c r="M2" t="n">
-        <v>499.2740606060619</v>
+        <v>312.633505050505</v>
       </c>
       <c r="N2" t="n">
-        <v>617.0840606060619</v>
+        <v>372.033505050505</v>
       </c>
       <c r="O2" t="n">
-        <v>704.9960606060619</v>
+        <v>418.464505050505</v>
       </c>
       <c r="P2" t="n">
-        <v>704.9960606060619</v>
+        <v>459.6485050505049</v>
       </c>
       <c r="Q2" t="n">
-        <v>763.4060606060618</v>
+        <v>495.427</v>
       </c>
       <c r="R2" t="n">
-        <v>763.4060606060618</v>
+        <v>508</v>
       </c>
       <c r="S2" t="n">
-        <v>721.3858585858598</v>
+        <v>494.4646464646465</v>
       </c>
       <c r="T2" t="n">
-        <v>632.0929292929304</v>
+        <v>437.8989898989899</v>
       </c>
       <c r="U2" t="n">
-        <v>513.9111111111112</v>
+        <v>344.9696969696969</v>
       </c>
       <c r="V2" t="n">
-        <v>415.4262626262645</v>
+        <v>268.7070707070707</v>
       </c>
       <c r="W2" t="n">
-        <v>336.638383838385</v>
+        <v>209.1111111111111</v>
       </c>
       <c r="X2" t="n">
-        <v>284.1131313131332</v>
+        <v>171.7373737373737</v>
       </c>
       <c r="Y2" t="n">
-        <v>244.7191919191934</v>
+        <v>145.4747474747474</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>205.3252525252518</v>
+        <v>146.0444444444426</v>
       </c>
       <c r="C3" t="n">
-        <v>185.6282828282828</v>
+        <v>129.3777777777778</v>
       </c>
       <c r="D3" t="n">
-        <v>172.496969696969</v>
+        <v>118.2666666666648</v>
       </c>
       <c r="E3" t="n">
-        <v>172.496969696969</v>
+        <v>118.2666666666648</v>
       </c>
       <c r="F3" t="n">
-        <v>172.496969696969</v>
+        <v>118.2666666666648</v>
       </c>
       <c r="G3" t="n">
-        <v>152.8</v>
+        <v>101.6</v>
       </c>
       <c r="H3" t="n">
-        <v>152.8</v>
+        <v>101.6</v>
       </c>
       <c r="I3" t="n">
-        <v>235.168</v>
+        <v>101.6</v>
       </c>
       <c r="J3" t="n">
-        <v>342.088</v>
+        <v>148.526</v>
       </c>
       <c r="K3" t="n">
-        <v>350.008</v>
+        <v>211.094</v>
       </c>
       <c r="L3" t="n">
-        <v>361.1927878787881</v>
+        <v>281.4830000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>361.1927878787881</v>
+        <v>336.5270000000004</v>
       </c>
       <c r="N3" t="n">
-        <v>443.3627878787881</v>
+        <v>373.3550000000005</v>
       </c>
       <c r="O3" t="n">
-        <v>450.2927878787881</v>
+        <v>426.7515151515159</v>
       </c>
       <c r="P3" t="n">
-        <v>450.2927878787881</v>
+        <v>426.7515151515159</v>
       </c>
       <c r="Q3" t="n">
-        <v>488.9027878787882</v>
+        <v>426.7515151515159</v>
       </c>
       <c r="R3" t="n">
-        <v>550.6787878787882</v>
+        <v>426.7515151515159</v>
       </c>
       <c r="S3" t="n">
-        <v>487.6484848484852</v>
+        <v>384.9333333333334</v>
       </c>
       <c r="T3" t="n">
-        <v>356.3353535353539</v>
+        <v>273.8222222222223</v>
       </c>
       <c r="U3" t="n">
-        <v>356.3353535353539</v>
+        <v>273.8222222222223</v>
       </c>
       <c r="V3" t="n">
-        <v>356.3353535353539</v>
+        <v>273.8222222222223</v>
       </c>
       <c r="W3" t="n">
-        <v>277.5474747474744</v>
+        <v>207.1555555555537</v>
       </c>
       <c r="X3" t="n">
-        <v>277.5474747474744</v>
+        <v>207.1555555555537</v>
       </c>
       <c r="Y3" t="n">
-        <v>238.1535353535346</v>
+        <v>173.8222222222204</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>192.1939393939379</v>
+        <v>134.9333333333297</v>
       </c>
       <c r="C4" t="n">
-        <v>172.496969696969</v>
+        <v>118.2666666666648</v>
       </c>
       <c r="D4" t="n">
-        <v>172.496969696969</v>
+        <v>118.2666666666648</v>
       </c>
       <c r="E4" t="n">
-        <v>172.496969696969</v>
+        <v>118.2666666666648</v>
       </c>
       <c r="F4" t="n">
-        <v>172.496969696969</v>
+        <v>118.2666666666648</v>
       </c>
       <c r="G4" t="n">
-        <v>152.8</v>
+        <v>101.6</v>
       </c>
       <c r="H4" t="n">
-        <v>152.8</v>
+        <v>101.6</v>
       </c>
       <c r="I4" t="n">
-        <v>152.8</v>
+        <v>101.6</v>
       </c>
       <c r="J4" t="n">
-        <v>173.392</v>
+        <v>101.6</v>
       </c>
       <c r="K4" t="n">
-        <v>188.44</v>
+        <v>101.6</v>
       </c>
       <c r="L4" t="n">
-        <v>313.18</v>
+        <v>150.4385555555515</v>
       </c>
       <c r="M4" t="n">
-        <v>313.18</v>
+        <v>189.8405555555519</v>
       </c>
       <c r="N4" t="n">
-        <v>321.1</v>
+        <v>252.4085555555519</v>
       </c>
       <c r="O4" t="n">
-        <v>328.03</v>
+        <v>307.1555555555519</v>
       </c>
       <c r="P4" t="n">
-        <v>333.9532929292918</v>
+        <v>307.1555555555519</v>
       </c>
       <c r="Q4" t="n">
-        <v>375.1372929292918</v>
+        <v>307.1555555555519</v>
       </c>
       <c r="R4" t="n">
-        <v>395.7292929292918</v>
+        <v>307.1555555555519</v>
       </c>
       <c r="S4" t="n">
-        <v>395.7292929292918</v>
+        <v>307.1555555555519</v>
       </c>
       <c r="T4" t="n">
-        <v>264.4161616161605</v>
+        <v>196.0444444444408</v>
       </c>
       <c r="U4" t="n">
-        <v>264.4161616161605</v>
+        <v>196.0444444444408</v>
       </c>
       <c r="V4" t="n">
-        <v>264.4161616161605</v>
+        <v>196.0444444444408</v>
       </c>
       <c r="W4" t="n">
-        <v>264.4161616161605</v>
+        <v>196.0444444444408</v>
       </c>
       <c r="X4" t="n">
-        <v>264.4161616161605</v>
+        <v>196.0444444444408</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.0222222222222</v>
+        <v>162.7111111111074</v>
       </c>
     </row>
   </sheetData>
@@ -3348,40 +3348,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108.8</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>95.07379859198177</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>112.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>21.7</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>30.1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -3431,10 +3431,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>14.3</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>15.1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3672,43 +3672,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -3755,37 +3755,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,31 +3835,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3999,16 +3999,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -4088,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.297765534129379</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -4100,13 +4100,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -4159,16 +4159,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>16.3</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4177,13 +4177,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.983124171001807</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 14.xlsx
+++ b/model/Output Files/Year 14.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.6679767371</v>
+        <v>77388.67161670145</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>10661.60663177227</v>
+        <v>10661.6070867717</v>
       </c>
       <c r="E2" t="n">
         <v>1620</v>
       </c>
       <c r="F2" t="n">
-        <v>15104.50128878651</v>
+        <v>15104.50202768189</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,30 +1245,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Type 1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Type 2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Type 3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Type 4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Type 5</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -1279,15 +1299,245 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15</v>
+      </c>
+      <c r="K2" t="n">
+        <v>15</v>
+      </c>
+      <c r="L2" t="n">
+        <v>15</v>
+      </c>
+      <c r="M2" t="n">
+        <v>15</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>15</v>
+      </c>
+      <c r="P2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>34</v>
       </c>
-      <c r="D2" t="n">
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34</v>
+      </c>
+      <c r="F3" t="n">
+        <v>34</v>
+      </c>
+      <c r="G3" t="n">
+        <v>34</v>
+      </c>
+      <c r="H3" t="n">
+        <v>34</v>
+      </c>
+      <c r="I3" t="n">
+        <v>34</v>
+      </c>
+      <c r="J3" t="n">
+        <v>34</v>
+      </c>
+      <c r="K3" t="n">
+        <v>34</v>
+      </c>
+      <c r="L3" t="n">
+        <v>34</v>
+      </c>
+      <c r="M3" t="n">
+        <v>34</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34</v>
+      </c>
+      <c r="O3" t="n">
+        <v>34</v>
+      </c>
+      <c r="P3" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="F2" t="n">
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11</v>
+      </c>
+      <c r="M6" t="n">
+        <v>11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>11</v>
+      </c>
+      <c r="P6" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2052,22 +2302,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>62.3</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
-        <v>49.7</v>
+        <v>10.2</v>
       </c>
       <c r="I2" t="n">
-        <v>46.6</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>88.63427201308214</v>
       </c>
       <c r="K2" t="n">
         <v>14.6</v>
       </c>
       <c r="L2" t="n">
-        <v>25.6</v>
+        <v>104.8</v>
       </c>
       <c r="M2" t="n">
         <v>28.8</v>
@@ -2079,19 +2329,19 @@
         <v>21</v>
       </c>
       <c r="P2" t="n">
-        <v>17.8</v>
+        <v>96.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>94.03427201306101</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>43.9</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>43.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2147,7 +2397,7 @@
         <v>52.2</v>
       </c>
       <c r="M3" t="n">
-        <v>99.83079277624756</v>
+        <v>34.6</v>
       </c>
       <c r="N3" t="n">
         <v>20.4</v>
@@ -2162,7 +2412,7 @@
         <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>17.4</v>
+        <v>82.63079277624759</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,13 +2465,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.8</v>
+        <v>5.8</v>
       </c>
       <c r="K4" t="n">
         <v>23.2</v>
       </c>
       <c r="L4" t="n">
-        <v>40.6</v>
+        <v>45.78322417000107</v>
       </c>
       <c r="M4" t="n">
         <v>23</v>
@@ -2233,13 +2483,13 @@
         <v>40.6</v>
       </c>
       <c r="P4" t="n">
-        <v>28.38312417100185</v>
+        <v>23.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.6</v>
+        <v>31.5999000010007</v>
       </c>
       <c r="R4" t="n">
-        <v>15.8</v>
+        <v>5.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2685,76 +2935,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090909106</v>
+        <v>179.0909090909316</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3939393939416</v>
+        <v>159.3939393939626</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2626262626277</v>
+        <v>146.2626262626488</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313139</v>
+        <v>133.1313131313349</v>
       </c>
       <c r="F2" t="n">
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>181.677</v>
+        <v>123.762</v>
       </c>
       <c r="H2" t="n">
-        <v>230.88</v>
+        <v>133.86</v>
       </c>
       <c r="I2" t="n">
-        <v>277.014</v>
+        <v>133.86</v>
       </c>
       <c r="J2" t="n">
-        <v>277.014</v>
+        <v>221.6079292929513</v>
       </c>
       <c r="K2" t="n">
-        <v>291.468</v>
+        <v>236.0619292929513</v>
       </c>
       <c r="L2" t="n">
-        <v>316.812</v>
+        <v>339.8139292929513</v>
       </c>
       <c r="M2" t="n">
-        <v>345.324</v>
+        <v>368.3259292929513</v>
       </c>
       <c r="N2" t="n">
-        <v>377.004</v>
+        <v>400.0059292929514</v>
       </c>
       <c r="O2" t="n">
-        <v>397.794</v>
+        <v>420.7959292929514</v>
       </c>
       <c r="P2" t="n">
-        <v>415.4160000000001</v>
+        <v>516.5289292929514</v>
       </c>
       <c r="Q2" t="n">
-        <v>508.5099292929305</v>
+        <v>599.2929292929514</v>
       </c>
       <c r="R2" t="n">
-        <v>551.9709292929305</v>
+        <v>599.2929292929514</v>
       </c>
       <c r="S2" t="n">
-        <v>556.1289292929305</v>
+        <v>599.2929292929514</v>
       </c>
       <c r="T2" t="n">
-        <v>599.2929292929305</v>
+        <v>599.2929292929514</v>
       </c>
       <c r="U2" t="n">
         <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626262645</v>
+        <v>382.6262626262854</v>
       </c>
       <c r="W2" t="n">
-        <v>303.838383838385</v>
+        <v>303.8383838384059</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313131332</v>
+        <v>251.3131313131541</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919191934</v>
+        <v>211.9191919192144</v>
       </c>
     </row>
     <row r="3">
@@ -2795,19 +3045,19 @@
         <v>275.034</v>
       </c>
       <c r="M3" t="n">
-        <v>373.8664848484851</v>
+        <v>309.288</v>
       </c>
       <c r="N3" t="n">
-        <v>394.0624848484852</v>
+        <v>329.484</v>
       </c>
       <c r="O3" t="n">
-        <v>434.2564848484852</v>
+        <v>369.6780000000001</v>
       </c>
       <c r="P3" t="n">
-        <v>434.6524848484852</v>
+        <v>370.0740000000001</v>
       </c>
       <c r="Q3" t="n">
-        <v>437.6224848484852</v>
+        <v>373.0440000000001</v>
       </c>
       <c r="R3" t="n">
         <v>454.8484848484852</v>
@@ -2863,28 +3113,28 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>135.642</v>
+        <v>125.742</v>
       </c>
       <c r="K4" t="n">
-        <v>158.61</v>
+        <v>148.71</v>
       </c>
       <c r="L4" t="n">
-        <v>198.804</v>
+        <v>194.0353919283011</v>
       </c>
       <c r="M4" t="n">
-        <v>221.574</v>
+        <v>216.8053919283011</v>
       </c>
       <c r="N4" t="n">
-        <v>267.51</v>
+        <v>262.7413919283011</v>
       </c>
       <c r="O4" t="n">
-        <v>307.704</v>
+        <v>302.9353919283011</v>
       </c>
       <c r="P4" t="n">
-        <v>335.8032929292918</v>
+        <v>325.9033919283011</v>
       </c>
       <c r="Q4" t="n">
-        <v>347.2872929292918</v>
+        <v>357.1872929292918</v>
       </c>
       <c r="R4" t="n">
         <v>362.9292929292918</v>
@@ -3357,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3378,16 +3628,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>79.43427201306102</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>24.2</v>
       </c>
       <c r="T2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3443,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>65.23079277624753</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -3458,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>65.23079277624758</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -3672,13 +3922,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>48.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -3687,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>79.2</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3699,16 +3949,16 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="R2" t="n">
-        <v>48.7</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -3835,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3856,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,16 +4246,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>92.83427201308214</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -4029,13 +4279,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>22.4</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4165,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>5.183224170001075</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -4177,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5.18312417100185</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 14.xlsx
+++ b/model/Output Files/Year 14.xlsx
@@ -15,12 +15,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 2" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 4" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 5" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -525,19 +523,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>61.81000000044258</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>123.6</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>115.7579999980211</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>123.6</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>123.6</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -564,37 +562,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>61.80999999999767</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>123.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>123.6</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>61.80999999999767</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>123.6</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>123.6</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>123.6</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>68.73599999687804</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>123.6</v>
       </c>
     </row>
     <row r="3">
@@ -602,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>61.80999999999768</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -665,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>61.80999999999767</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -691,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>61.80999999951635</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -733,13 +731,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>114.9379577022769</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>61.80999999999767</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>70.47204229621212</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -748,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>103.5560000005445</v>
       </c>
     </row>
   </sheetData>
@@ -757,396 +755,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Y4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Revenues</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Capital Costs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Variable Costs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Fixed Costs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Total Profits</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>80576.48655034835</v>
-      </c>
-      <c r="C2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16153.46139576612</v>
-      </c>
-      <c r="E2" t="n">
-        <v>955</v>
-      </c>
-      <c r="F2" t="n">
-        <v>14677.85441003122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1184,10 +792,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1203,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>11211</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,13 +824,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>191</v>
+        <v>5178</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1230,13 +838,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1296,49 +904,49 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="L2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="O2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="P2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3">
@@ -1346,49 +954,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="D3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="E3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="F3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="G3" t="n">
-        <v>34</v>
+        <v>484</v>
       </c>
       <c r="H3" t="n">
-        <v>34</v>
+        <v>487</v>
       </c>
       <c r="I3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="J3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="K3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="L3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="M3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="N3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="O3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4">
@@ -1396,149 +1004,49 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1546,7 +1054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1639,76 +1147,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>-1211.51</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>-1136.26</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>-1061.81</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>-996.17</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>-977.63</v>
       </c>
       <c r="G2" t="n">
-        <v>22.1</v>
+        <v>-866.895</v>
       </c>
       <c r="H2" t="n">
-        <v>50.7</v>
+        <v>-775.78</v>
       </c>
       <c r="I2" t="n">
-        <v>26</v>
+        <v>-566.6700000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>27.3</v>
+        <v>-390.5800000000002</v>
       </c>
       <c r="K2" t="n">
-        <v>80.59999999999999</v>
+        <v>-468.3050000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>114.4</v>
+        <v>-559.8699999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>128.7</v>
+        <v>-699.625</v>
       </c>
       <c r="N2" t="n">
-        <v>143</v>
+        <v>-920.71</v>
       </c>
       <c r="O2" t="n">
-        <v>109.2</v>
+        <v>-1118.445</v>
       </c>
       <c r="P2" t="n">
-        <v>94.90000000000001</v>
+        <v>-1160.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.59999999999999</v>
+        <v>-1156.31</v>
       </c>
       <c r="R2" t="n">
-        <v>19.5</v>
+        <v>-1141.46</v>
       </c>
       <c r="S2" t="n">
-        <v>-41.60000000000001</v>
+        <v>-1144.01</v>
       </c>
       <c r="T2" t="n">
-        <v>-88.40000000000001</v>
+        <v>-1289.76</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>-1379.2</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>-1346.75</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>-1297.99</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>-1140.13</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>-1064.46</v>
       </c>
     </row>
     <row r="3">
@@ -1716,76 +1224,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>-879.3</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>-811</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>-743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-620.6500000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-335.1400000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>27.27000000000005</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>193.87</v>
       </c>
       <c r="I3" t="n">
-        <v>83.2</v>
+        <v>379.3449999999998</v>
       </c>
       <c r="J3" t="n">
-        <v>124.8</v>
+        <v>534.7799999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>166.4</v>
+        <v>483.6749999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>187.2</v>
+        <v>452.2999999999998</v>
       </c>
       <c r="M3" t="n">
-        <v>149.5</v>
+        <v>367.57</v>
       </c>
       <c r="N3" t="n">
-        <v>101.4</v>
+        <v>149.0700000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>145.6</v>
+        <v>-161.885</v>
       </c>
       <c r="P3" t="n">
-        <v>32.49999999999999</v>
+        <v>-461.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>39</v>
+        <v>-820.285</v>
       </c>
       <c r="R3" t="n">
-        <v>62.4</v>
+        <v>-932.5600000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>-62.40000000000001</v>
+        <v>-950.8</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>-1103.5</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>-1198.5</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>-1173</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>-1129.8</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-977.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>-906</v>
       </c>
     </row>
     <row r="4">
@@ -1793,76 +1301,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>-1150.35</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>-1086.22</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-966.9799999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-861.235</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>-428.7049999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-144.71</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.98000000000013</v>
       </c>
       <c r="J4" t="n">
-        <v>20.8</v>
+        <v>278.04</v>
       </c>
       <c r="K4" t="n">
-        <v>83.2</v>
+        <v>230.71</v>
       </c>
       <c r="L4" t="n">
-        <v>145.6</v>
+        <v>187.8149999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>107.9</v>
+        <v>79.84499999999994</v>
       </c>
       <c r="N4" t="n">
-        <v>166.4</v>
+        <v>-180.765</v>
       </c>
       <c r="O4" t="n">
-        <v>145.6</v>
+        <v>-573.1600000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>83.2</v>
+        <v>-991.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.6</v>
+        <v>-1263.34</v>
       </c>
       <c r="R4" t="n">
-        <v>20.8</v>
+        <v>-1258.22</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>-1269.11</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>-1424.59</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>-1520.98</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>-1498.26</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>-1456.45</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>-1306.93</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>-1236.82</v>
       </c>
     </row>
   </sheetData>
@@ -1978,34 +1486,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>751.1370000000293</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2107.668000000117</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3475.410000000393</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4327.446000000234</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4450.767000000234</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3923.85</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2915.540696969698</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1771.3380000002</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>706.2930000000292</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>22.42200000000091</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -2049,46 +1557,46 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>336.3300000000146</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3023.134966941391</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>646.8</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4531.989</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>5934</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>739.2</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>661.4490000000292</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>44.84400000000183</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2129,37 +1637,37 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>504.4950000000292</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>677.8799999997069</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>5381.280000000233</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6002.040000000059</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6028.920000000059</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>978.6</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>980.2800000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>939.1200000002536</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>940.8</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2730.929696971225</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1018.26</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -2299,37 +1807,37 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-4.933099262416363e-07</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1282.848000000117</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2662.290000000393</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3495.006000000234</v>
       </c>
       <c r="K2" t="n">
-        <v>80.60000000370201</v>
+        <v>3497.367000006386</v>
       </c>
       <c r="L2" t="n">
-        <v>114.4000000006519</v>
+        <v>2976.330000000116</v>
       </c>
       <c r="M2" t="n">
-        <v>128.7000000006752</v>
+        <v>2015.060696969698</v>
       </c>
       <c r="N2" t="n">
-        <v>109.9999999999268</v>
+        <v>808.0680000001995</v>
       </c>
       <c r="O2" t="n">
-        <v>109.2000000007218</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>73.87379858608594</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -2373,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-4.797925612365361e-09</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2382,28 +1890,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2393.134966941391</v>
       </c>
       <c r="I3" t="n">
-        <v>3.99999999997695</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>143.999999999963</v>
+        <v>3733.989</v>
       </c>
       <c r="L3" t="n">
-        <v>84.79776552876308</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>149.5000000042142</v>
+        <v>5178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19.5999999999766</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -2459,28 +1967,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4575.720000000234</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5178</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>5178</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>138.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>81.9999999999998</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>5.183124171074383</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>19.59999999999998</v>
+        <v>1805.249696971224</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2611,22 +2119,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>1149.7</v>
       </c>
       <c r="C2" t="n">
-        <v>19.50000000004657</v>
+        <v>1012.660000000452</v>
       </c>
       <c r="D2" t="n">
-        <v>12.99999999995343</v>
+        <v>946.0520000019789</v>
       </c>
       <c r="E2" t="n">
-        <v>12.99999999995343</v>
+        <v>872.5699999999941</v>
       </c>
       <c r="F2" t="n">
-        <v>12.99999999995343</v>
+        <v>854.0299995091592</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>115.7579999984713</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2650,37 +2158,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>350.3419999968999</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1014.868000000057</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1032.709999999936</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1141.46</v>
       </c>
       <c r="S2" t="n">
-        <v>41.59999999974389</v>
+        <v>1020.41</v>
       </c>
       <c r="T2" t="n">
-        <v>88.40000000000001</v>
+        <v>1227.95</v>
       </c>
       <c r="U2" t="n">
-        <v>117.0000000000466</v>
+        <v>1255.6</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>1223.15</v>
       </c>
       <c r="W2" t="n">
-        <v>77.99999999995343</v>
+        <v>1174.389999999994</v>
       </c>
       <c r="X2" t="n">
-        <v>52.00000000004657</v>
+        <v>1071.394000003122</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.99999999997672</v>
+        <v>940.8599999999946</v>
       </c>
     </row>
     <row r="3">
@@ -2688,22 +2196,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>817.4900000000023</v>
       </c>
       <c r="C3" t="n">
-        <v>19.50000000004657</v>
+        <v>811</v>
       </c>
       <c r="D3" t="n">
-        <v>12.99999999995343</v>
+        <v>743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>284.3199999951876</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.50000000004657</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2733,31 +2241,31 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>158.8359999985971</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>887.7159999999981</v>
       </c>
       <c r="S3" t="n">
-        <v>62.39999999881256</v>
+        <v>950.8</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>1103.5</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1198.5</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1173</v>
       </c>
       <c r="W3" t="n">
-        <v>77.99999999995343</v>
+        <v>1067.990000000002</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>977.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>38.99999999997672</v>
+        <v>906</v>
       </c>
     </row>
     <row r="4">
@@ -2765,22 +2273,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>1150.35</v>
       </c>
       <c r="C4" t="n">
-        <v>19.50000000004657</v>
+        <v>1086.219999999884</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>966.9799999999417</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>294.9299999999731</v>
       </c>
       <c r="G4" t="n">
-        <v>19.50000000004657</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2810,31 +2318,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1263.34</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1258.22</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1269.11</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>1309.652042297723</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1459.170000000119</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1427.787957703788</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1456.45</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1306.93</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.99999999997672</v>
+        <v>1133.263999999937</v>
       </c>
     </row>
   </sheetData>
@@ -2935,76 +2443,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>211.8909090907433</v>
+        <v>7981.864646464638</v>
       </c>
       <c r="C2" t="n">
-        <v>192.1939393937266</v>
+        <v>6958.975757575755</v>
       </c>
       <c r="D2" t="n">
-        <v>179.0626262624605</v>
+        <v>6003.367676765675</v>
       </c>
       <c r="E2" t="n">
-        <v>165.9313131311944</v>
+        <v>5121.983838378191</v>
       </c>
       <c r="F2" t="n">
-        <v>152.7999999999302</v>
+        <v>4259.327272731547</v>
       </c>
       <c r="G2" t="n">
-        <v>152.7999999998137</v>
+        <v>4142.4</v>
       </c>
       <c r="H2" t="n">
-        <v>152.7999999998137</v>
+        <v>5412.419519997695</v>
       </c>
       <c r="I2" t="n">
-        <v>152.7999999998137</v>
+        <v>8048.086619998084</v>
       </c>
       <c r="J2" t="n">
-        <v>152.7999999998137</v>
+        <v>11508.14255999832</v>
       </c>
       <c r="K2" t="n">
-        <v>232.5940000034787</v>
+        <v>14970.53589000464</v>
       </c>
       <c r="L2" t="n">
-        <v>345.8500000041241</v>
+        <v>17917.10259000475</v>
       </c>
       <c r="M2" t="n">
-        <v>473.2630000047926</v>
+        <v>19912.01268000475</v>
       </c>
       <c r="N2" t="n">
-        <v>582.1630000047201</v>
+        <v>20712.00000000245</v>
       </c>
       <c r="O2" t="n">
-        <v>690.2710000054346</v>
+        <v>20358.11919192728</v>
       </c>
       <c r="P2" t="n">
-        <v>763.4060606056597</v>
+        <v>19333</v>
       </c>
       <c r="Q2" t="n">
-        <v>763.4060606056597</v>
+        <v>18289.85858585865</v>
       </c>
       <c r="R2" t="n">
-        <v>763.4060606056597</v>
+        <v>17136.86868687678</v>
       </c>
       <c r="S2" t="n">
-        <v>721.3858585857164</v>
+        <v>16106.1515151596</v>
       </c>
       <c r="T2" t="n">
-        <v>632.0929292927871</v>
+        <v>14865.79797980607</v>
       </c>
       <c r="U2" t="n">
-        <v>513.9111111109219</v>
+        <v>13597.51515152324</v>
       </c>
       <c r="V2" t="n">
-        <v>415.4262626260734</v>
+        <v>12362.01010101323</v>
       </c>
       <c r="W2" t="n">
-        <v>336.6383838382416</v>
+        <v>11175.75757576071</v>
       </c>
       <c r="X2" t="n">
-        <v>284.1131313129421</v>
+        <v>10093.54141414095</v>
       </c>
       <c r="Y2" t="n">
-        <v>244.7191919190262</v>
+        <v>9143.177777777777</v>
       </c>
     </row>
     <row r="3">
@@ -3012,76 +2520,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>205.3252525252588</v>
+        <v>5999.793939390522</v>
       </c>
       <c r="C3" t="n">
-        <v>185.6282828282421</v>
+        <v>5180.602020198605</v>
       </c>
       <c r="D3" t="n">
-        <v>172.496969696976</v>
+        <v>4429.591919188504</v>
       </c>
       <c r="E3" t="n">
-        <v>172.496969696976</v>
+        <v>4142.399999997579</v>
       </c>
       <c r="F3" t="n">
-        <v>172.496969696976</v>
+        <v>4142.399999997579</v>
       </c>
       <c r="G3" t="n">
-        <v>152.7999999999593</v>
+        <v>4142.399999997579</v>
       </c>
       <c r="H3" t="n">
-        <v>152.7999999999593</v>
+        <v>6511.603617268673</v>
       </c>
       <c r="I3" t="n">
-        <v>156.7599999999364</v>
+        <v>6511.603617268673</v>
       </c>
       <c r="J3" t="n">
-        <v>156.7599999999364</v>
+        <v>6511.603617268673</v>
       </c>
       <c r="K3" t="n">
-        <v>299.3199999998998</v>
+        <v>10208.25272726867</v>
       </c>
       <c r="L3" t="n">
-        <v>383.2697878733752</v>
+        <v>10208.25272726862</v>
       </c>
       <c r="M3" t="n">
-        <v>531.2747878775473</v>
+        <v>15334.47272726862</v>
       </c>
       <c r="N3" t="n">
-        <v>531.2747878775473</v>
+        <v>15334.47272726867</v>
       </c>
       <c r="O3" t="n">
-        <v>550.6787878775242</v>
+        <v>15334.47272726867</v>
       </c>
       <c r="P3" t="n">
-        <v>550.6787878775242</v>
+        <v>15334.47272726867</v>
       </c>
       <c r="Q3" t="n">
-        <v>550.6787878775242</v>
+        <v>15174.03232322969</v>
       </c>
       <c r="R3" t="n">
-        <v>550.6787878775242</v>
+        <v>14277.34949494686</v>
       </c>
       <c r="S3" t="n">
-        <v>487.6484848484206</v>
+        <v>13316.94545454282</v>
       </c>
       <c r="T3" t="n">
-        <v>356.3353535352892</v>
+        <v>12202.29898989636</v>
       </c>
       <c r="U3" t="n">
-        <v>356.3353535352892</v>
+        <v>10991.69292928951</v>
       </c>
       <c r="V3" t="n">
-        <v>356.3353535352892</v>
+        <v>9806.844444441031</v>
       </c>
       <c r="W3" t="n">
-        <v>277.5474747474575</v>
+        <v>8728.066666663251</v>
       </c>
       <c r="X3" t="n">
-        <v>277.5474747474575</v>
+        <v>7740.692929289514</v>
       </c>
       <c r="Y3" t="n">
-        <v>238.1535353535416</v>
+        <v>6825.541414137999</v>
       </c>
     </row>
     <row r="4">
@@ -3089,76 +2597,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>560.4646464646703</v>
+        <v>7546.066666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>540.7676767676536</v>
+        <v>6448.874747474749</v>
       </c>
       <c r="D4" t="n">
-        <v>540.7676767676536</v>
+        <v>5417.056565656567</v>
       </c>
       <c r="E4" t="n">
-        <v>540.7676767676536</v>
+        <v>4440.309090909094</v>
       </c>
       <c r="F4" t="n">
-        <v>540.7676767676536</v>
+        <v>4142.4</v>
       </c>
       <c r="G4" t="n">
-        <v>521.0707070706369</v>
+        <v>4142.4</v>
       </c>
       <c r="H4" t="n">
-        <v>521.0707070706369</v>
+        <v>8672.362799999941</v>
       </c>
       <c r="I4" t="n">
-        <v>521.0707070706369</v>
+        <v>13798.5828</v>
       </c>
       <c r="J4" t="n">
-        <v>521.0707070706369</v>
+        <v>18924.8028</v>
       </c>
       <c r="K4" t="n">
-        <v>521.0707070706369</v>
+        <v>18924.80280000006</v>
       </c>
       <c r="L4" t="n">
-        <v>658.2847070706368</v>
+        <v>18924.80279999988</v>
       </c>
       <c r="M4" t="n">
-        <v>739.4647070706367</v>
+        <v>18924.80280000013</v>
       </c>
       <c r="N4" t="n">
-        <v>744.5960000000003</v>
+        <v>18924.80280000013</v>
       </c>
       <c r="O4" t="n">
-        <v>764.0000000000003</v>
+        <v>20712</v>
       </c>
       <c r="P4" t="n">
-        <v>764.0000000000003</v>
+        <v>20712</v>
       </c>
       <c r="Q4" t="n">
-        <v>764.0000000000003</v>
+        <v>19435.89898989899</v>
       </c>
       <c r="R4" t="n">
-        <v>764.0000000000003</v>
+        <v>18164.96969697134</v>
       </c>
       <c r="S4" t="n">
-        <v>764.0000000000003</v>
+        <v>16883.04040404205</v>
       </c>
       <c r="T4" t="n">
-        <v>632.686868686869</v>
+        <v>15560.15955323627</v>
       </c>
       <c r="U4" t="n">
-        <v>632.686868686869</v>
+        <v>14086.25046232705</v>
       </c>
       <c r="V4" t="n">
-        <v>632.686868686869</v>
+        <v>12644.0404040404</v>
       </c>
       <c r="W4" t="n">
-        <v>632.686868686869</v>
+        <v>11172.87878787878</v>
       </c>
       <c r="X4" t="n">
-        <v>632.686868686869</v>
+        <v>9852.747474747475</v>
       </c>
       <c r="Y4" t="n">
-        <v>593.2929292929532</v>
+        <v>8708.036363636367</v>
       </c>
     </row>
     <row r="5">
@@ -6832,40 +6340,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.799999999884246</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108.8000000002794</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>122.4000000002561</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>112.2000000001863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>95.57379858582982</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>10.40000000000003</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>33.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -6921,25 +6429,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>84.79776552876307</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>139.4000000037486</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7.600000000000019</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.320277303624607e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -7001,10 +6509,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>105.3999999999998</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -7156,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.360000001499429</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -7168,22 +6676,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.200000000186265</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.100000000209548</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.800000000279397</v>
+        <v>4.8</v>
       </c>
       <c r="P2" t="n">
-        <v>6.900000000256114</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -7192,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.400000000256114</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -7227,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -7239,19 +6747,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>9.100000000209548</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -7263,13 +6771,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>11.6000000013737</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4000000011874363</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -7378,7 +6886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7387,77 +6895,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Revenues</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Capital Costs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Variable Costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Fixed Costs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Profits</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -7465,230 +6926,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3374686.869375211</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>423420.8843383035</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>198175</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>15.60000000370201</v>
-      </c>
-      <c r="L2" t="n">
-        <v>19.20000000018626</v>
-      </c>
-      <c r="M2" t="n">
-        <v>21.60000000020955</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-7.286192162435047e-11</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20.40000000025611</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>15.59999999999997</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.999999999999999</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-3.698077424127892e-11</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>24.40000000025611</v>
-      </c>
-      <c r="N3" t="n">
-        <v>18.39999999999998</v>
-      </c>
-      <c r="O3" t="n">
-        <v>19.59999999999998</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>19.59999999999998</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5.183124171074412</v>
-      </c>
-      <c r="O4" t="n">
-        <v>19.59999999999998</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
+        <v>638517.2648223127</v>
       </c>
     </row>
   </sheetData>

--- a/model/Output Files/Year 14.xlsx
+++ b/model/Output Files/Year 14.xlsx
@@ -15,10 +15,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 2" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -523,22 +524,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>61.81000000044258</v>
+        <v>111</v>
       </c>
       <c r="C2" t="n">
-        <v>123.6</v>
+        <v>18.75999999992973</v>
       </c>
       <c r="D2" t="n">
-        <v>115.7579999980211</v>
+        <v>111</v>
       </c>
       <c r="E2" t="n">
-        <v>123.6</v>
+        <v>111</v>
       </c>
       <c r="F2" t="n">
-        <v>123.6</v>
+        <v>111</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -556,43 +557,43 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>55.50999999974738</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>61.80999999999767</v>
+        <v>111</v>
       </c>
       <c r="P2" t="n">
-        <v>123.6</v>
+        <v>111</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.6</v>
+        <v>111</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="S2" t="n">
-        <v>123.6</v>
+        <v>111</v>
       </c>
       <c r="T2" t="n">
-        <v>61.80999999999767</v>
+        <v>111</v>
       </c>
       <c r="U2" t="n">
-        <v>123.6</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>123.6</v>
+        <v>111</v>
       </c>
       <c r="W2" t="n">
-        <v>123.6</v>
+        <v>111</v>
       </c>
       <c r="X2" t="n">
-        <v>68.73599999687804</v>
+        <v>111</v>
       </c>
       <c r="Y2" t="n">
-        <v>123.6</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>61.80999999999768</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -657,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>61.80999999999767</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>55.52999999833629</v>
       </c>
     </row>
     <row r="4">
@@ -686,10 +687,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>79.29100000000221</v>
       </c>
       <c r="F4" t="n">
-        <v>61.80999999951635</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -725,28 +726,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>114.9379577022769</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>61.80999999999767</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>70.47204229621212</v>
+        <v>111</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="Y4" t="n">
-        <v>103.5560000005445</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -755,6 +756,72 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Revenues</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Capital Costs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Variable Costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Fixed Costs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Profits</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3384352.12258545</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>436278.2673199099</v>
+      </c>
+      <c r="E2" t="n">
+        <v>182735</v>
+      </c>
+      <c r="F2" t="n">
+        <v>641544.3031897809</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -792,10 +859,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -811,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>11211</v>
+        <v>10198</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -827,10 +894,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>5178</v>
+        <v>5213</v>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -838,13 +905,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -969,16 +1036,16 @@
         <v>510</v>
       </c>
       <c r="G3" t="n">
-        <v>484</v>
+        <v>510</v>
       </c>
       <c r="H3" t="n">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="I3" t="n">
         <v>510</v>
       </c>
       <c r="J3" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K3" t="n">
         <v>510</v>
@@ -1019,16 +1086,16 @@
         <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" t="n">
         <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
         <v>40</v>
@@ -1047,6 +1114,56 @@
       </c>
       <c r="P4" t="n">
         <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1156,43 +1273,43 @@
         <v>-1061.81</v>
       </c>
       <c r="E2" t="n">
-        <v>-996.17</v>
+        <v>-1031.17</v>
       </c>
       <c r="F2" t="n">
         <v>-977.63</v>
       </c>
       <c r="G2" t="n">
-        <v>-866.895</v>
+        <v>-858.895</v>
       </c>
       <c r="H2" t="n">
-        <v>-775.78</v>
+        <v>-752.78</v>
       </c>
       <c r="I2" t="n">
-        <v>-566.6700000000001</v>
+        <v>-528.6700000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>-390.5800000000002</v>
+        <v>-343.5800000000002</v>
       </c>
       <c r="K2" t="n">
-        <v>-468.3050000000001</v>
+        <v>-420.3050000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>-559.8699999999999</v>
+        <v>-516.8699999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>-699.625</v>
+        <v>-667.625</v>
       </c>
       <c r="N2" t="n">
-        <v>-920.71</v>
+        <v>-901.71</v>
       </c>
       <c r="O2" t="n">
-        <v>-1118.445</v>
+        <v>-1111.445</v>
       </c>
       <c r="P2" t="n">
         <v>-1160.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1156.31</v>
+        <v>-1191.31</v>
       </c>
       <c r="R2" t="n">
         <v>-1141.46</v>
@@ -1233,43 +1350,43 @@
         <v>-743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>-620.6500000000001</v>
+        <v>-651.6500000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>-335.1400000000001</v>
+        <v>-316.1400000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>27.27000000000005</v>
+        <v>69.27000000000005</v>
       </c>
       <c r="H3" t="n">
-        <v>193.87</v>
+        <v>254.87</v>
       </c>
       <c r="I3" t="n">
-        <v>379.3449999999998</v>
+        <v>454.3449999999998</v>
       </c>
       <c r="J3" t="n">
-        <v>534.7799999999999</v>
+        <v>618.7799999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>483.6749999999999</v>
+        <v>570.675</v>
       </c>
       <c r="L3" t="n">
-        <v>452.2999999999998</v>
+        <v>538.2999999999998</v>
       </c>
       <c r="M3" t="n">
-        <v>367.57</v>
+        <v>445.57</v>
       </c>
       <c r="N3" t="n">
-        <v>149.0700000000001</v>
+        <v>215.0700000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>-161.885</v>
+        <v>-112.885</v>
       </c>
       <c r="P3" t="n">
-        <v>-461.76</v>
+        <v>-434.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>-820.285</v>
+        <v>-847.285</v>
       </c>
       <c r="R3" t="n">
         <v>-932.5600000000001</v>
@@ -1310,43 +1427,43 @@
         <v>-1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>-966.9799999999999</v>
+        <v>-1001.98</v>
       </c>
       <c r="F4" t="n">
-        <v>-861.235</v>
+        <v>-856.235</v>
       </c>
       <c r="G4" t="n">
-        <v>-428.7049999999999</v>
+        <v>-396.7049999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>-144.71</v>
+        <v>-85.70999999999998</v>
       </c>
       <c r="I4" t="n">
-        <v>96.98000000000013</v>
+        <v>172.9800000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>278.04</v>
+        <v>364.04</v>
       </c>
       <c r="K4" t="n">
-        <v>230.71</v>
+        <v>320.71</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8149999999999</v>
+        <v>275.8149999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>79.84499999999994</v>
+        <v>158.8449999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>-180.765</v>
+        <v>-115.765</v>
       </c>
       <c r="O4" t="n">
-        <v>-573.1600000000001</v>
+        <v>-530.1600000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>-991.62</v>
+        <v>-976.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>-1263.34</v>
+        <v>-1298.34</v>
       </c>
       <c r="R4" t="n">
         <v>-1258.22</v>
@@ -1486,34 +1603,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>751.1370000000293</v>
+        <v>683.2660000000002</v>
       </c>
       <c r="H2" t="n">
-        <v>2107.668000000117</v>
+        <v>1917.224</v>
       </c>
       <c r="I2" t="n">
-        <v>3475.410000000393</v>
+        <v>3161.380000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>4327.446000000234</v>
+        <v>3936.428000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>4450.767000000234</v>
+        <v>4048.606000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>3923.85</v>
+        <v>3569.3</v>
       </c>
       <c r="M2" t="n">
-        <v>2915.540696969698</v>
+        <v>2682.074000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>1771.3380000002</v>
+        <v>1611.284000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>706.2930000000292</v>
+        <v>642.4740000000002</v>
       </c>
       <c r="P2" t="n">
-        <v>22.42200000000091</v>
+        <v>20.396</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1557,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>336.3300000000146</v>
+        <v>305.9400000000001</v>
       </c>
       <c r="F3" t="n">
         <v>462</v>
@@ -1566,37 +1683,37 @@
         <v>504</v>
       </c>
       <c r="H3" t="n">
-        <v>3023.134966941391</v>
+        <v>630</v>
       </c>
       <c r="I3" t="n">
-        <v>646.8</v>
+        <v>5859.8</v>
       </c>
       <c r="J3" t="n">
-        <v>672</v>
+        <v>1662.642179367132</v>
       </c>
       <c r="K3" t="n">
-        <v>4531.989</v>
+        <v>6011</v>
       </c>
       <c r="L3" t="n">
         <v>798</v>
       </c>
       <c r="M3" t="n">
-        <v>5934</v>
+        <v>756</v>
       </c>
       <c r="N3" t="n">
         <v>756</v>
       </c>
       <c r="O3" t="n">
-        <v>739.2</v>
+        <v>739.1999999976375</v>
       </c>
       <c r="P3" t="n">
         <v>672</v>
       </c>
       <c r="Q3" t="n">
-        <v>661.4490000000292</v>
+        <v>601.6820000000001</v>
       </c>
       <c r="R3" t="n">
-        <v>44.84400000000183</v>
+        <v>40.79200000000001</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1637,37 +1754,37 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>504.4950000000292</v>
+        <v>458.9100000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>677.8799999997069</v>
+        <v>677.88</v>
       </c>
       <c r="H4" t="n">
-        <v>5381.280000000233</v>
+        <v>805.5599999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>6002.040000000059</v>
+        <v>824.0399999995561</v>
       </c>
       <c r="J4" t="n">
-        <v>6028.920000000059</v>
+        <v>850.9200000004349</v>
       </c>
       <c r="K4" t="n">
-        <v>978.6</v>
+        <v>6191.6</v>
       </c>
       <c r="L4" t="n">
-        <v>980.2800000000001</v>
+        <v>2930.043010101011</v>
       </c>
       <c r="M4" t="n">
-        <v>939.1200000002536</v>
+        <v>6152.12</v>
       </c>
       <c r="N4" t="n">
-        <v>940.8</v>
+        <v>5415.138000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>2730.929696971225</v>
+        <v>925.6800000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>1018.26</v>
+        <v>1018.260000000002</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1807,31 +1924,31 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.933099262416363e-07</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1282.848000000117</v>
+        <v>1164.443999998915</v>
       </c>
       <c r="I2" t="n">
-        <v>2662.290000000393</v>
+        <v>2632.545010099528</v>
       </c>
       <c r="J2" t="n">
-        <v>3495.006000000234</v>
+        <v>3592.848000000558</v>
       </c>
       <c r="K2" t="n">
-        <v>3497.367000006386</v>
+        <v>3628.300999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>2976.330000000116</v>
+        <v>3052.430000000237</v>
       </c>
       <c r="M2" t="n">
-        <v>2015.060696969698</v>
+        <v>2069.959000001992</v>
       </c>
       <c r="N2" t="n">
-        <v>808.0680000001995</v>
+        <v>709.574</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1875,13 +1992,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-3.440072759985924e-08</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-4.797925612365361e-09</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1890,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2393.134966941391</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5213</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>990.6421793671318</v>
       </c>
       <c r="K3" t="n">
-        <v>3733.989</v>
+        <v>5213</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>5178</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -1923,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>-2.135057002305984e-07</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1938,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-1.034932211041451e-07</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -1967,28 +2084,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4575.720000000234</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5178</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5178</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5213</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1949.763010101011</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>5213</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4474.337999997058</v>
       </c>
       <c r="O4" t="n">
-        <v>1805.249696971224</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2119,22 +2236,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1149.7</v>
+        <v>1100.51</v>
       </c>
       <c r="C2" t="n">
-        <v>1012.660000000452</v>
+        <v>1117.5</v>
       </c>
       <c r="D2" t="n">
-        <v>946.0520000019789</v>
+        <v>950.8099999999419</v>
       </c>
       <c r="E2" t="n">
-        <v>872.5699999999941</v>
+        <v>920.1700000003176</v>
       </c>
       <c r="F2" t="n">
-        <v>854.0299995091592</v>
+        <v>866.6299999999418</v>
       </c>
       <c r="G2" t="n">
-        <v>115.7579999984713</v>
+        <v>64.62899999999989</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2143,10 +2260,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.231746864505112e-09</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.474854798289016e-09</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -2158,37 +2275,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>350.3419999968999</v>
+        <v>357.9709999969164</v>
       </c>
       <c r="P2" t="n">
-        <v>1014.868000000057</v>
+        <v>1029.494</v>
       </c>
       <c r="Q2" t="n">
-        <v>1032.709999999936</v>
+        <v>1080.31</v>
       </c>
       <c r="R2" t="n">
-        <v>1141.46</v>
+        <v>1030.459999999942</v>
       </c>
       <c r="S2" t="n">
-        <v>1020.41</v>
+        <v>1033.01</v>
       </c>
       <c r="T2" t="n">
-        <v>1227.95</v>
+        <v>1178.760000000026</v>
       </c>
       <c r="U2" t="n">
-        <v>1255.6</v>
+        <v>1379.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1223.15</v>
+        <v>1235.75</v>
       </c>
       <c r="W2" t="n">
-        <v>1174.389999999994</v>
+        <v>1186.990000000002</v>
       </c>
       <c r="X2" t="n">
-        <v>1071.394000003122</v>
+        <v>1029.129999999942</v>
       </c>
       <c r="Y2" t="n">
-        <v>940.8599999999946</v>
+        <v>953.4599999999999</v>
       </c>
     </row>
     <row r="3">
@@ -2196,16 +2313,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>817.4900000000023</v>
+        <v>879.3</v>
       </c>
       <c r="C3" t="n">
-        <v>811</v>
+        <v>810.9999999688993</v>
       </c>
       <c r="D3" t="n">
         <v>743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>284.3199999951876</v>
+        <v>345.709999996624</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2235,37 +2352,37 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.362536406508298e-09</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.8359999985971</v>
+        <v>245.6029999984021</v>
       </c>
       <c r="R3" t="n">
-        <v>887.7159999999981</v>
+        <v>891.768</v>
       </c>
       <c r="S3" t="n">
-        <v>950.8</v>
+        <v>950.7999997889692</v>
       </c>
       <c r="T3" t="n">
         <v>1103.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1198.5</v>
+        <v>1087.5</v>
       </c>
       <c r="V3" t="n">
         <v>1173</v>
       </c>
       <c r="W3" t="n">
-        <v>1067.990000000002</v>
+        <v>1129.8</v>
       </c>
       <c r="X3" t="n">
-        <v>977.5</v>
+        <v>977.4999998989817</v>
       </c>
       <c r="Y3" t="n">
-        <v>906</v>
+        <v>850.4700000016621</v>
       </c>
     </row>
     <row r="4">
@@ -2276,16 +2393,16 @@
         <v>1150.35</v>
       </c>
       <c r="C4" t="n">
-        <v>1086.219999999884</v>
+        <v>1086.22</v>
       </c>
       <c r="D4" t="n">
         <v>1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>966.9799999999417</v>
+        <v>922.6889999999977</v>
       </c>
       <c r="F4" t="n">
-        <v>294.9299999999731</v>
+        <v>397.325</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2318,31 +2435,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1263.34</v>
+        <v>1298.340000000301</v>
       </c>
       <c r="R4" t="n">
-        <v>1258.22</v>
+        <v>1147.220000000023</v>
       </c>
       <c r="S4" t="n">
-        <v>1269.11</v>
+        <v>1269.11000000027</v>
       </c>
       <c r="T4" t="n">
-        <v>1309.652042297723</v>
+        <v>1424.59</v>
       </c>
       <c r="U4" t="n">
-        <v>1459.170000000119</v>
+        <v>1520.98</v>
       </c>
       <c r="V4" t="n">
-        <v>1427.787957703788</v>
+        <v>1387.260000000045</v>
       </c>
       <c r="W4" t="n">
         <v>1456.45</v>
       </c>
       <c r="X4" t="n">
-        <v>1306.93</v>
+        <v>1195.929999999942</v>
       </c>
       <c r="Y4" t="n">
-        <v>1133.263999999937</v>
+        <v>1236.82</v>
       </c>
     </row>
   </sheetData>
@@ -2443,76 +2560,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7981.864646464638</v>
+        <v>8129.732323232337</v>
       </c>
       <c r="C2" t="n">
-        <v>6958.975757575755</v>
+        <v>7000.944444444444</v>
       </c>
       <c r="D2" t="n">
-        <v>6003.367676765675</v>
+        <v>6040.530303030304</v>
       </c>
       <c r="E2" t="n">
-        <v>5121.983838378191</v>
+        <v>5111.065656565599</v>
       </c>
       <c r="F2" t="n">
-        <v>4259.327272731547</v>
+        <v>4235.681818181819</v>
       </c>
       <c r="G2" t="n">
-        <v>4142.4</v>
+        <v>4170.4</v>
       </c>
       <c r="H2" t="n">
-        <v>5412.419519997695</v>
+        <v>5323.199560000001</v>
       </c>
       <c r="I2" t="n">
-        <v>8048.086619998084</v>
+        <v>7929.419119997243</v>
       </c>
       <c r="J2" t="n">
-        <v>11508.14255999832</v>
+        <v>11486.3386399978</v>
       </c>
       <c r="K2" t="n">
-        <v>14970.53589000464</v>
+        <v>15078.35662999706</v>
       </c>
       <c r="L2" t="n">
-        <v>17917.10259000475</v>
+        <v>18100.26232999803</v>
       </c>
       <c r="M2" t="n">
-        <v>19912.01268000475</v>
+        <v>20149.52174</v>
       </c>
       <c r="N2" t="n">
-        <v>20712.00000000245</v>
+        <v>20852</v>
       </c>
       <c r="O2" t="n">
-        <v>20358.11919192728</v>
+        <v>20490.41313131238</v>
       </c>
       <c r="P2" t="n">
-        <v>19333</v>
+        <v>19450.52020202027</v>
       </c>
       <c r="Q2" t="n">
-        <v>18289.85858585865</v>
+        <v>18359.29797979796</v>
       </c>
       <c r="R2" t="n">
-        <v>17136.86868687678</v>
+        <v>17318.42929292933</v>
       </c>
       <c r="S2" t="n">
-        <v>16106.1515151596</v>
+        <v>16274.98484848489</v>
       </c>
       <c r="T2" t="n">
-        <v>14865.79797980607</v>
+        <v>15084.31818181819</v>
       </c>
       <c r="U2" t="n">
-        <v>13597.51515152324</v>
+        <v>13691.18686868688</v>
       </c>
       <c r="V2" t="n">
-        <v>12362.01010101323</v>
+        <v>12442.95454545456</v>
       </c>
       <c r="W2" t="n">
-        <v>11175.75757576071</v>
+        <v>11243.97474747476</v>
       </c>
       <c r="X2" t="n">
-        <v>10093.54141414095</v>
+        <v>10204.44949494951</v>
       </c>
       <c r="Y2" t="n">
-        <v>9143.177777777777</v>
+        <v>9241.358585858599</v>
       </c>
     </row>
     <row r="3">
@@ -2520,76 +2637,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5999.793939390522</v>
+        <v>6094.604040403348</v>
       </c>
       <c r="C3" t="n">
-        <v>5180.602020198605</v>
+        <v>5275.412121212121</v>
       </c>
       <c r="D3" t="n">
-        <v>4429.591919188504</v>
+        <v>4524.402020201142</v>
       </c>
       <c r="E3" t="n">
-        <v>4142.399999997579</v>
+        <v>4175.200000002533</v>
       </c>
       <c r="F3" t="n">
-        <v>4142.399999997579</v>
+        <v>4175.200000002533</v>
       </c>
       <c r="G3" t="n">
-        <v>4142.399999997579</v>
+        <v>4175.200000002533</v>
       </c>
       <c r="H3" t="n">
-        <v>6511.603617268673</v>
+        <v>4175.200000002533</v>
       </c>
       <c r="I3" t="n">
-        <v>6511.603617268673</v>
+        <v>9336.070000002312</v>
       </c>
       <c r="J3" t="n">
-        <v>6511.603617268673</v>
+        <v>10316.80575757577</v>
       </c>
       <c r="K3" t="n">
-        <v>10208.25272726867</v>
+        <v>15477.67575757577</v>
       </c>
       <c r="L3" t="n">
-        <v>10208.25272726862</v>
+        <v>15477.67575757577</v>
       </c>
       <c r="M3" t="n">
-        <v>15334.47272726862</v>
+        <v>15477.67575757577</v>
       </c>
       <c r="N3" t="n">
-        <v>15334.47272726867</v>
+        <v>15477.67575757577</v>
       </c>
       <c r="O3" t="n">
-        <v>15334.47272726867</v>
+        <v>15477.67575757247</v>
       </c>
       <c r="P3" t="n">
-        <v>15334.47272726867</v>
+        <v>15477.6757575717</v>
       </c>
       <c r="Q3" t="n">
-        <v>15174.03232322969</v>
+        <v>15229.59191918948</v>
       </c>
       <c r="R3" t="n">
-        <v>14277.34949494686</v>
+        <v>14328.81616161372</v>
       </c>
       <c r="S3" t="n">
-        <v>13316.94545454282</v>
+        <v>13368.41212121397</v>
       </c>
       <c r="T3" t="n">
-        <v>12202.29898989636</v>
+        <v>12253.76565656444</v>
       </c>
       <c r="U3" t="n">
-        <v>10991.69292928951</v>
+        <v>11155.28080808082</v>
       </c>
       <c r="V3" t="n">
-        <v>9806.844444441031</v>
+        <v>9970.43232323234</v>
       </c>
       <c r="W3" t="n">
-        <v>8728.066666663251</v>
+        <v>8829.220202019345</v>
       </c>
       <c r="X3" t="n">
-        <v>7740.692929289514</v>
+        <v>7841.846464647688</v>
       </c>
       <c r="Y3" t="n">
-        <v>6825.541414137999</v>
+        <v>6982.785858585403</v>
       </c>
     </row>
     <row r="4">
@@ -2597,76 +2714,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7546.066666666667</v>
+        <v>7632.757575757575</v>
       </c>
       <c r="C4" t="n">
-        <v>6448.874747474749</v>
+        <v>6535.565656565655</v>
       </c>
       <c r="D4" t="n">
-        <v>5417.056565656567</v>
+        <v>5503.747474747473</v>
       </c>
       <c r="E4" t="n">
-        <v>4440.309090909094</v>
+        <v>4571.738383836329</v>
       </c>
       <c r="F4" t="n">
-        <v>4142.4</v>
+        <v>4170.4</v>
       </c>
       <c r="G4" t="n">
-        <v>4142.4</v>
+        <v>4170.4</v>
       </c>
       <c r="H4" t="n">
-        <v>8672.362799999941</v>
+        <v>4170.4</v>
       </c>
       <c r="I4" t="n">
-        <v>13798.5828</v>
+        <v>4170.4</v>
       </c>
       <c r="J4" t="n">
-        <v>18924.8028</v>
+        <v>4170.4</v>
       </c>
       <c r="K4" t="n">
-        <v>18924.80280000006</v>
+        <v>9331.269999998513</v>
       </c>
       <c r="L4" t="n">
-        <v>18924.80279999988</v>
+        <v>11261.53537999927</v>
       </c>
       <c r="M4" t="n">
-        <v>18924.80280000013</v>
+        <v>16422.40538</v>
       </c>
       <c r="N4" t="n">
-        <v>18924.80280000013</v>
+        <v>20852</v>
       </c>
       <c r="O4" t="n">
-        <v>20712</v>
+        <v>20852</v>
       </c>
       <c r="P4" t="n">
-        <v>20712</v>
+        <v>20852</v>
       </c>
       <c r="Q4" t="n">
-        <v>19435.89898989899</v>
+        <v>19540.54545454546</v>
       </c>
       <c r="R4" t="n">
-        <v>18164.96969697134</v>
+        <v>18381.73737373737</v>
       </c>
       <c r="S4" t="n">
-        <v>16883.04040404205</v>
+        <v>17099.80808080808</v>
       </c>
       <c r="T4" t="n">
-        <v>15560.15955323627</v>
+        <v>15660.82828282723</v>
       </c>
       <c r="U4" t="n">
-        <v>14086.25046232705</v>
+        <v>14124.48484848485</v>
       </c>
       <c r="V4" t="n">
-        <v>12644.0404040404</v>
+        <v>12723.21212121212</v>
       </c>
       <c r="W4" t="n">
-        <v>11172.87878787878</v>
+        <v>11252.0505050505</v>
       </c>
       <c r="X4" t="n">
-        <v>9852.747474747475</v>
+        <v>10044.04040404046</v>
       </c>
       <c r="Y4" t="n">
-        <v>8708.036363636367</v>
+        <v>8794.727272727328</v>
       </c>
     </row>
     <row r="5">
@@ -6346,19 +6463,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>146.3700000011595</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>311.1</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>349.0949999999997</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>268.77</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>116.5350000022445</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -6664,31 +6781,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.360000001499429</v>
+        <v>6.36</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>49.03999999999998</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>99.91501009836702</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>130.7600000002421</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>118.8800000002375</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>84.32000000204425</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>42.56000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>4.8</v>
+        <v>4.800000003073364</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -6735,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>2.000000003376044</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -6771,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>11.6000000013737</v>
+        <v>11.6</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -6886,7 +7003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6895,30 +7012,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Revenues</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Capital Costs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Variable Costs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Fixed Costs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Total Profits</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -6926,19 +7090,230 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3374686.869375211</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>423420.8843383035</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>198175</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>638517.2648223127</v>
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2" t="n">
+        <v>38</v>
+      </c>
+      <c r="J2" t="n">
+        <v>47</v>
+      </c>
+      <c r="K2" t="n">
+        <v>48</v>
+      </c>
+      <c r="L2" t="n">
+        <v>43</v>
+      </c>
+      <c r="M2" t="n">
+        <v>32</v>
+      </c>
+      <c r="N2" t="n">
+        <v>19</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
